--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -794,30 +794,6 @@
   </si>
   <si>
     <t>method name wrong</t>
-  </si>
-  <si>
-    <t>Get the transmethod detail</t>
-  </si>
-  <si>
-    <t>Returns the number of transmethod in a given block by blockNumber or blockhash</t>
-  </si>
-  <si>
-    <t>Get the transmethod mined result</t>
-  </si>
-  <si>
-    <t>Return the receipt of a transmethod by transmethod hash</t>
-  </si>
-  <si>
-    <t>Return information of transmethod in a given block by blockNumber or blockhash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return information of transmethod via the specified address </t>
-  </si>
-  <si>
-    <t>Return information of transmethod via the specified address between the specified startblockno and endblockno</t>
-  </si>
-  <si>
-    <t>Send raw Transmethod</t>
   </si>
   <si>
     <t>Unrecognizable params</t>
@@ -6143,9 +6119,6 @@
 }</t>
   </si>
   <si>
-    <t>Create new message call transmethod or a contract creation for signed transaction</t>
-  </si>
-  <si>
     <t>{
   "jsonrpc": "2.0",
   "id": "user defined field",
@@ -6328,6 +6301,33 @@
   }]
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create new message call transaction or a contract creation for signed transaction</t>
+  </si>
+  <si>
+    <t>Get the transaction detail</t>
+  </si>
+  <si>
+    <t>Returns the number of transaction in a given block by blockNumber or blockhash</t>
+  </si>
+  <si>
+    <t>Get the transaction mined result</t>
+  </si>
+  <si>
+    <t>Return the receipt of a transaction by transaction hash</t>
+  </si>
+  <si>
+    <t>Return information of transaction in a given block by blockNumber or blockhash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return information of transaction via the specified address </t>
+  </si>
+  <si>
+    <t>Return information of transaction via the specified address between the specified startblockno and endblockno</t>
+  </si>
+  <si>
+    <t>Send raw transaction</t>
   </si>
 </sst>
 </file>
@@ -7036,10 +7036,10 @@
   <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7079,7 +7079,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>13</v>
@@ -7090,10 +7090,10 @@
     </row>
     <row r="2" spans="1:15" ht="115.2">
       <c r="A2" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
@@ -7105,10 +7105,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
@@ -7133,10 +7133,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
@@ -7161,10 +7161,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
@@ -7192,14 +7192,14 @@
         <v>17</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -7220,10 +7220,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
@@ -7248,10 +7248,10 @@
         <v>17</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -7274,10 +7274,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -7300,10 +7300,10 @@
         <v>36</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -7326,10 +7326,10 @@
         <v>36</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -7337,13 +7337,13 @@
     </row>
     <row r="11" spans="1:15" ht="75.599999999999994" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>40</v>
@@ -7352,10 +7352,10 @@
         <v>36</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -7378,10 +7378,10 @@
         <v>36</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
@@ -7397,7 +7397,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>47</v>
@@ -7406,10 +7406,10 @@
         <v>36</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
@@ -7434,10 +7434,10 @@
         <v>36</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
@@ -7462,10 +7462,10 @@
         <v>36</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
@@ -7490,10 +7490,10 @@
         <v>17</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
@@ -7518,10 +7518,10 @@
         <v>17</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
@@ -7540,16 +7540,16 @@
         <v>61</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6" t="s">
@@ -7568,16 +7568,16 @@
         <v>64</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="6" t="s">
@@ -7596,16 +7596,16 @@
         <v>64</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="6" t="s">
@@ -7624,16 +7624,16 @@
         <v>64</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
@@ -7652,16 +7652,16 @@
         <v>64</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="6" t="s">
@@ -7680,16 +7680,16 @@
         <v>71</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
@@ -7708,16 +7708,16 @@
         <v>71</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
@@ -7733,19 +7733,19 @@
         <v>42</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="6" t="s">
@@ -7764,16 +7764,16 @@
         <v>71</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
@@ -7792,16 +7792,16 @@
         <v>71</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
@@ -7826,10 +7826,10 @@
         <v>17</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="6" t="s">
@@ -7854,10 +7854,10 @@
         <v>17</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="6" t="s">
@@ -7882,10 +7882,10 @@
         <v>36</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="6" t="s">
@@ -7910,10 +7910,10 @@
         <v>17</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="6" t="s">
@@ -7938,10 +7938,10 @@
         <v>17</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
@@ -7966,10 +7966,10 @@
         <v>17</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
@@ -7994,10 +7994,10 @@
         <v>17</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
@@ -8016,16 +8016,16 @@
         <v>99</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>241</v>
+        <v>455</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="6" t="s">
@@ -8050,10 +8050,10 @@
         <v>36</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
@@ -8078,10 +8078,10 @@
         <v>36</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="6" t="s">
@@ -8097,19 +8097,19 @@
         <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="6" t="s">
@@ -8125,19 +8125,19 @@
         <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="6" t="s">
@@ -8153,19 +8153,19 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>243</v>
+        <v>457</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="6" t="s">
@@ -8181,19 +8181,19 @@
         <v>42</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>243</v>
+        <v>457</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="6" t="s">
@@ -8209,19 +8209,19 @@
         <v>42</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="6" t="s">
@@ -8237,19 +8237,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="6" t="s">
@@ -8274,10 +8274,10 @@
         <v>17</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4" t="s">
@@ -8302,10 +8302,10 @@
         <v>17</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
@@ -8324,16 +8324,16 @@
         <v>120</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>245</v>
+        <v>459</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="6" t="s">
@@ -8352,16 +8352,16 @@
         <v>120</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>245</v>
+        <v>459</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="6" t="s">
@@ -8380,16 +8380,16 @@
         <v>123</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>246</v>
+        <v>460</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="6" t="s">
@@ -8408,16 +8408,16 @@
         <v>125</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>247</v>
+        <v>461</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="6" t="s">
@@ -8442,10 +8442,10 @@
         <v>36</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4" t="s">
@@ -8470,10 +8470,10 @@
         <v>17</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4" t="s">
@@ -8498,10 +8498,10 @@
         <v>17</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4" t="s">
@@ -8526,10 +8526,10 @@
         <v>17</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
@@ -8554,10 +8554,10 @@
         <v>17</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
@@ -8582,10 +8582,10 @@
         <v>17</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
@@ -8610,10 +8610,10 @@
         <v>17</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
@@ -8638,10 +8638,10 @@
         <v>17</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
@@ -8666,10 +8666,10 @@
         <v>17</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
@@ -8694,10 +8694,10 @@
         <v>17</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
@@ -8722,10 +8722,10 @@
         <v>17</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4" t="s">
@@ -8750,10 +8750,10 @@
         <v>17</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
@@ -8778,10 +8778,10 @@
         <v>17</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4" t="s">
@@ -8806,10 +8806,10 @@
         <v>17</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4" t="s">
@@ -8834,10 +8834,10 @@
         <v>17</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4" t="s">
@@ -8862,10 +8862,10 @@
         <v>36</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4" t="s">
@@ -8890,10 +8890,10 @@
         <v>17</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4" t="s">
@@ -8918,10 +8918,10 @@
         <v>17</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4" t="s">
@@ -8946,10 +8946,10 @@
         <v>17</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="6" t="s">
@@ -8974,10 +8974,10 @@
         <v>17</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4" t="s">
@@ -9002,10 +9002,10 @@
         <v>17</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="6" t="s">
@@ -9030,10 +9030,10 @@
         <v>17</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4" t="s">
@@ -9058,10 +9058,10 @@
         <v>17</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4" t="s">
@@ -9086,10 +9086,10 @@
         <v>17</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4" t="s">
@@ -9114,10 +9114,10 @@
         <v>17</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4" t="s">
@@ -9136,16 +9136,16 @@
         <v>99</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>241</v>
+        <v>455</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4" t="s">
@@ -9170,10 +9170,10 @@
         <v>17</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4" t="s">
@@ -9198,10 +9198,10 @@
         <v>17</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4" t="s">
@@ -9217,19 +9217,19 @@
         <v>164</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4" t="s">
@@ -9245,19 +9245,19 @@
         <v>164</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4" t="s">
@@ -9273,19 +9273,19 @@
         <v>164</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>243</v>
+        <v>457</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="6" t="s">
@@ -9301,19 +9301,19 @@
         <v>164</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>243</v>
+        <v>457</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4" t="s">
@@ -9329,19 +9329,19 @@
         <v>164</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="6" t="s">
@@ -9357,19 +9357,19 @@
         <v>164</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4" t="s">
@@ -9388,16 +9388,16 @@
         <v>120</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>245</v>
+        <v>459</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4" t="s">
@@ -9416,16 +9416,16 @@
         <v>120</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>245</v>
+        <v>459</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4" t="s">
@@ -9444,16 +9444,16 @@
         <v>123</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>246</v>
+        <v>460</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4" t="s">
@@ -9472,16 +9472,16 @@
         <v>125</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>247</v>
+        <v>461</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
@@ -9506,10 +9506,10 @@
         <v>17</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="6" t="s">
@@ -9534,10 +9534,10 @@
         <v>17</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="6" t="s">
@@ -9559,13 +9559,13 @@
         <v>128</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4" t="s">
@@ -9590,10 +9590,10 @@
         <v>17</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="13" t="s">
@@ -9618,10 +9618,10 @@
         <v>17</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4" t="s">
@@ -9646,10 +9646,10 @@
         <v>17</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4" t="s">
@@ -9674,10 +9674,10 @@
         <v>17</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4" t="s">
@@ -9702,10 +9702,10 @@
         <v>17</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4" t="s">
@@ -9730,10 +9730,10 @@
         <v>17</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4" t="s">
@@ -9758,10 +9758,10 @@
         <v>17</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4" t="s">
@@ -9786,10 +9786,10 @@
         <v>17</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4" t="s">
@@ -9814,10 +9814,10 @@
         <v>17</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4" t="s">
@@ -9842,10 +9842,10 @@
         <v>17</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4" t="s">
@@ -9870,10 +9870,10 @@
         <v>17</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4" t="s">
@@ -9898,10 +9898,10 @@
         <v>17</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4" t="s">
@@ -9926,10 +9926,10 @@
         <v>17</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4" t="s">
@@ -9954,10 +9954,10 @@
         <v>17</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4" t="s">
@@ -9982,10 +9982,10 @@
         <v>17</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4" t="s">
@@ -10010,10 +10010,10 @@
         <v>17</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4" t="s">
@@ -10038,10 +10038,10 @@
         <v>17</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4" t="s">
@@ -10057,7 +10057,7 @@
         <v>209</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>47</v>
@@ -10066,10 +10066,10 @@
         <v>36</v>
       </c>
       <c r="F108" s="27" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H108" s="17"/>
       <c r="I108" s="17" t="s">
@@ -10085,7 +10085,7 @@
         <v>209</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>211</v>
@@ -10094,10 +10094,10 @@
         <v>36</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="s">
@@ -10122,10 +10122,10 @@
         <v>36</v>
       </c>
       <c r="F110" s="28" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H110" s="18"/>
       <c r="I110" s="18" t="s">
@@ -10150,10 +10150,10 @@
         <v>17</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G111" s="25" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4" t="s">
@@ -10172,16 +10172,16 @@
         <v>89</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>248</v>
+        <v>462</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F112" s="28" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H112" s="18"/>
       <c r="I112" s="18" t="s">
@@ -10206,10 +10206,10 @@
         <v>36</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G113" s="25" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4" t="s">
@@ -10225,7 +10225,7 @@
         <v>209</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D114" s="20" t="s">
         <v>221</v>
@@ -10234,10 +10234,10 @@
         <v>17</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H114" s="18"/>
       <c r="I114" s="18" t="s">
@@ -10253,7 +10253,7 @@
         <v>209</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>213</v>
@@ -10262,10 +10262,10 @@
         <v>36</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4" t="s">
@@ -10290,10 +10290,10 @@
         <v>17</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4" t="s">

--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13320" activeTab="1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">testcases!$A$1:$O$44</definedName>
     <definedName name="Z_039CC8E6_E3A9_41D2_8462_8CF34EAE656B_.wvu.FilterData" localSheetId="1" hidden="1">testcases!$A$1:$O$44</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -6274,14 +6274,6 @@
     <t>{
   "jsonrpc": "2.0",
   "id": "user defined field",
-  "result": "180000000000"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
   "result": [{
     "blockNumber": 2016851,
     "gas": 4700000,
@@ -6328,6 +6320,14 @@
   </si>
   <si>
     <t>Send raw transaction</t>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "result": 180000000000
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7036,10 +7036,10 @@
   <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7904,7 +7904,7 @@
         <v>89</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>17</v>
@@ -7932,7 +7932,7 @@
         <v>89</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>17</v>
@@ -7960,7 +7960,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>17</v>
@@ -7988,7 +7988,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
@@ -8016,7 +8016,7 @@
         <v>99</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>36</v>
@@ -8100,7 +8100,7 @@
         <v>390</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>17</v>
@@ -8128,7 +8128,7 @@
         <v>390</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>36</v>
@@ -8156,7 +8156,7 @@
         <v>372</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>17</v>
@@ -8184,7 +8184,7 @@
         <v>372</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>17</v>
@@ -8212,7 +8212,7 @@
         <v>385</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>17</v>
@@ -8240,7 +8240,7 @@
         <v>385</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>17</v>
@@ -8296,7 +8296,7 @@
         <v>89</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>17</v>
@@ -8324,7 +8324,7 @@
         <v>120</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>36</v>
@@ -8352,7 +8352,7 @@
         <v>120</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>36</v>
@@ -8361,7 +8361,7 @@
         <v>263</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="6" t="s">
@@ -8380,7 +8380,7 @@
         <v>123</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>36</v>
@@ -8408,7 +8408,7 @@
         <v>125</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>36</v>
@@ -8865,7 +8865,7 @@
         <v>280</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4" t="s">
@@ -9108,7 +9108,7 @@
         <v>89</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>17</v>
@@ -9136,7 +9136,7 @@
         <v>99</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>17</v>
@@ -9220,7 +9220,7 @@
         <v>390</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>17</v>
@@ -9248,7 +9248,7 @@
         <v>390</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>17</v>
@@ -9276,7 +9276,7 @@
         <v>372</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>36</v>
@@ -9304,7 +9304,7 @@
         <v>372</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>17</v>
@@ -9332,7 +9332,7 @@
         <v>385</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>36</v>
@@ -9360,7 +9360,7 @@
         <v>385</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>17</v>
@@ -9388,7 +9388,7 @@
         <v>120</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>17</v>
@@ -9416,7 +9416,7 @@
         <v>120</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>17</v>
@@ -9444,7 +9444,7 @@
         <v>123</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>17</v>
@@ -9472,7 +9472,7 @@
         <v>125</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>17</v>
@@ -9528,7 +9528,7 @@
         <v>89</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>17</v>
@@ -10172,7 +10172,7 @@
         <v>89</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>17</v>

--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -6325,7 +6325,7 @@
     <t>{
   "jsonrpc": "2.0",
   "id": "user defined field",
-  "result": 180000000000
+  "result": "180000000000"
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>

--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -5753,9 +5753,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>getTransaction</t>
-  </si>
-  <si>
     <t>getUTXO</t>
   </si>
   <si>
@@ -5770,18 +5767,6 @@
           "address": ["mtCotFuC1JP448Y3uhEbyPeP7UduYUn6Vb"]
     }
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "jsonrpc": "2.0",
-        "id": "user defined field",
-        "method": "getTransaction",
-        "params": {
-          "chainType":"BTC",
-         "txHash":"7168a86c84eda0bbfb7ae553118b02983516e8a6c448dc4c0630d26299297f20"
-        }
-      }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6327,6 +6312,22 @@
   "id": "user defined field",
   "result": "180000000000"
 }</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "jsonrpc": "2.0",
+        "id": "user defined field",
+        "method": "getTxInfo",
+        "params": {
+          "chainType":"BTC","format":true
+         "txHash":"7168a86c84eda0bbfb7ae553118b02983516e8a6c448dc4c0630d26299297f20"
+        }
+      }</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTxInfo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6647,6 +6648,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6704,7 +6773,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7036,10 +7105,10 @@
   <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7633,7 +7702,7 @@
         <v>406</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
@@ -7733,7 +7802,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>413</v>
@@ -7745,7 +7814,7 @@
         <v>408</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="6" t="s">
@@ -7904,7 +7973,7 @@
         <v>89</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>17</v>
@@ -7932,7 +8001,7 @@
         <v>89</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>17</v>
@@ -7960,7 +8029,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>17</v>
@@ -7988,7 +8057,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
@@ -8016,7 +8085,7 @@
         <v>99</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>36</v>
@@ -8025,7 +8094,7 @@
         <v>259</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="6" t="s">
@@ -8053,7 +8122,7 @@
         <v>260</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
@@ -8081,7 +8150,7 @@
         <v>261</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="6" t="s">
@@ -8100,7 +8169,7 @@
         <v>390</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>17</v>
@@ -8128,7 +8197,7 @@
         <v>390</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>36</v>
@@ -8156,7 +8225,7 @@
         <v>372</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>17</v>
@@ -8165,7 +8234,7 @@
         <v>373</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="6" t="s">
@@ -8184,7 +8253,7 @@
         <v>372</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>17</v>
@@ -8212,16 +8281,16 @@
         <v>385</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="6" t="s">
@@ -8240,7 +8309,7 @@
         <v>385</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>17</v>
@@ -8274,10 +8343,10 @@
         <v>17</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4" t="s">
@@ -8296,7 +8365,7 @@
         <v>89</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>17</v>
@@ -8324,7 +8393,7 @@
         <v>120</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>36</v>
@@ -8333,7 +8402,7 @@
         <v>262</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="6" t="s">
@@ -8352,7 +8421,7 @@
         <v>120</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>36</v>
@@ -8361,7 +8430,7 @@
         <v>263</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="6" t="s">
@@ -8380,7 +8449,7 @@
         <v>123</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>36</v>
@@ -8389,7 +8458,7 @@
         <v>264</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="6" t="s">
@@ -8408,7 +8477,7 @@
         <v>125</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>36</v>
@@ -8417,7 +8486,7 @@
         <v>318</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="6" t="s">
@@ -8445,7 +8514,7 @@
         <v>265</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4" t="s">
@@ -8865,7 +8934,7 @@
         <v>280</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4" t="s">
@@ -9108,7 +9177,7 @@
         <v>89</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>17</v>
@@ -9136,7 +9205,7 @@
         <v>99</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>17</v>
@@ -9220,7 +9289,7 @@
         <v>390</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>17</v>
@@ -9248,7 +9317,7 @@
         <v>390</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>17</v>
@@ -9276,7 +9345,7 @@
         <v>372</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>36</v>
@@ -9285,7 +9354,7 @@
         <v>375</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="6" t="s">
@@ -9304,7 +9373,7 @@
         <v>372</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>17</v>
@@ -9332,7 +9401,7 @@
         <v>385</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>36</v>
@@ -9341,7 +9410,7 @@
         <v>387</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="6" t="s">
@@ -9360,7 +9429,7 @@
         <v>385</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>17</v>
@@ -9388,7 +9457,7 @@
         <v>120</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>17</v>
@@ -9397,7 +9466,7 @@
         <v>292</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4" t="s">
@@ -9416,7 +9485,7 @@
         <v>120</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>17</v>
@@ -9425,7 +9494,7 @@
         <v>293</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4" t="s">
@@ -9444,7 +9513,7 @@
         <v>123</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>17</v>
@@ -9453,7 +9522,7 @@
         <v>294</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4" t="s">
@@ -9472,7 +9541,7 @@
         <v>125</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>17</v>
@@ -9481,7 +9550,7 @@
         <v>295</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
@@ -9506,10 +9575,10 @@
         <v>17</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="6" t="s">
@@ -9528,7 +9597,7 @@
         <v>89</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>17</v>
@@ -10069,7 +10138,7 @@
         <v>363</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H108" s="17"/>
       <c r="I108" s="17" t="s">
@@ -10085,7 +10154,7 @@
         <v>209</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>211</v>
@@ -10094,10 +10163,10 @@
         <v>36</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="s">
@@ -10172,7 +10241,7 @@
         <v>89</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>17</v>
@@ -10225,7 +10294,7 @@
         <v>209</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D114" s="20" t="s">
         <v>221</v>
@@ -10234,7 +10303,7 @@
         <v>17</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G114" s="28" t="s">
         <v>401</v>
@@ -10253,7 +10322,7 @@
         <v>209</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>213</v>
@@ -10262,7 +10331,7 @@
         <v>36</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>357</v>

--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -6315,19 +6315,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>getTxInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "jsonrpc": "2.0",
         "id": "user defined field",
         "method": "getTxInfo",
         "params": {
-          "chainType":"BTC","format":true
+          "chainType":"BTC","format":true,
          "txHash":"7168a86c84eda0bbfb7ae553118b02983516e8a6c448dc4c0630d26299297f20"
         }
       }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTxInfo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6648,74 +6648,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6773,7 +6705,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7108,7 +7040,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G115" sqref="G115"/>
+      <selection pane="bottomRight" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10322,7 +10254,7 @@
         <v>209</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>213</v>
@@ -10331,7 +10263,7 @@
         <v>36</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>357</v>

--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13320" activeTab="1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">testcases!$A$1:$O$44</definedName>
     <definedName name="Z_039CC8E6_E3A9_41D2_8462_8CF34EAE656B_.wvu.FilterData" localSheetId="1" hidden="1">testcases!$A$1:$O$44</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -106,27 +106,18 @@
     <t>TC0006</t>
   </si>
   <si>
-    <t>getErc20Info</t>
-  </si>
-  <si>
     <t>Get the info of ERC20 contract, like symbol and decimals</t>
   </si>
   <si>
     <t>TC0007</t>
   </si>
   <si>
-    <t>getMultiErc20Info</t>
-  </si>
-  <si>
     <t>Get the infos of muti ERC20 contracts, like symbol and decimals</t>
   </si>
   <si>
     <t>TC0008</t>
   </si>
   <si>
-    <t>getErc20Allowance</t>
-  </si>
-  <si>
     <t>Get the erc20 allowance for one specific account on one  contract for one specific spender account</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
   </si>
   <si>
     <t>TC0009</t>
-  </si>
-  <si>
-    <t>getRegErc20Tokens</t>
   </si>
   <si>
     <t>Get the detail info of registered contract for Erc20_crosschain, like address, ratio, etc</t>
@@ -820,55 +808,6 @@
   "id": "user defined field",
   "method": "getGasPrice",
   "params": {
-  }
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "method": "getErc20Info",
-  "params": {
-    "chainType":"ETH",
-    "tokenScAddr":"0xc5bc855056d99ef4bda0a4ae937065315e2ae11a"
-  }
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "method": "getMultiErc20Info",
-  "params": {
-    "chainType":"ETH",
-    "tokenScAddrArray":["0xc5bc855056d99ef4bda0a4ae937065315e2ae11a","0x7017500899433272b4088afe34c04d742d0ce7df" ]
-  }
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "method": "getErc20Allowance",
-  "params": {
-    "chainType":"ETH",
-    "tokenScAddr":"0xc5bc855056d99ef4bda0a4ae937065315e2ae11a",
-    "ownerAddr":"0xc27ecd85faa4ae80bf5e28daf91b605db7be1ba8",
-    "spenderAddr":"0xcdc96fea7e2a6ce584df5dc22d9211e53a5b18b1"
-  }
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "method": "getRegErc20Tokens",
-  "params": {
-    "crossChain":"ETH"
   }
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -5437,23 +5376,8 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "method": "getErc20StoremanGroups",
-  "params": {
-    "crossChain":"ETH",
-    "tokenScAddr":"0xc5bc855056d99ef4bda0a4ae937065315e2ae11a"
-  }
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>TC0010</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>getErc20StoremanGroups</t>
   </si>
   <si>
     <t>{
@@ -6329,6 +6253,77 @@
         }
       }</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTokenStoremanGroups</t>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getTokenStoremanGroups",
+  "params": {
+    "crossChain":"ETH",
+    "tokenScAddr":"0xc5bc855056d99ef4bda0a4ae937065315e2ae11a"
+  }
+}</t>
+  </si>
+  <si>
+    <t>getRegTokens</t>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getRegTokens",
+  "params": {
+    "crossChain":"ETH"
+  }
+}</t>
+  </si>
+  <si>
+    <t>getTokenAllowance</t>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getTokenAllowance",
+  "params": {
+    "chainType":"ETH",
+    "tokenScAddr":"0xc5bc855056d99ef4bda0a4ae937065315e2ae11a",
+    "ownerAddr":"0xc27ecd85faa4ae80bf5e28daf91b605db7be1ba8",
+    "spenderAddr":"0xcdc96fea7e2a6ce584df5dc22d9211e53a5b18b1"
+  }
+}</t>
+  </si>
+  <si>
+    <t>getTokenInfo</t>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getTokenInfo",
+  "params": {
+    "chainType":"ETH",
+    "tokenScAddr":"0xc5bc855056d99ef4bda0a4ae937065315e2ae11a"
+  }
+}</t>
+  </si>
+  <si>
+    <t>getMultiTokenInfo</t>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getMultiTokenInfo",
+  "params": {
+    "chainType":"ETH",
+    "tokenScAddrArray":["0xc5bc855056d99ef4bda0a4ae937065315e2ae11a","0x7017500899433272b4088afe34c04d742d0ce7df" ]
+  }
+}</t>
   </si>
 </sst>
 </file>
@@ -7037,10 +7032,10 @@
   <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F115" sqref="F115"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7080,7 +7075,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>13</v>
@@ -7091,10 +7086,10 @@
     </row>
     <row r="2" spans="1:15" ht="115.2">
       <c r="A2" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
@@ -7106,10 +7101,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
@@ -7134,14 +7129,14 @@
         <v>17</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -7162,14 +7157,14 @@
         <v>17</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J4" s="4"/>
       <c r="O4" t="s">
@@ -7193,14 +7188,14 @@
         <v>17</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -7221,10 +7216,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
@@ -7240,19 +7235,19 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>245</v>
+        <v>460</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -7260,25 +7255,25 @@
     </row>
     <row r="8" spans="1:15" ht="75.599999999999994" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>461</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>246</v>
+        <v>462</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -7286,25 +7281,25 @@
     </row>
     <row r="9" spans="1:15" ht="75.599999999999994" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>457</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>247</v>
+        <v>458</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -7312,25 +7307,25 @@
     </row>
     <row r="10" spans="1:15" ht="75.599999999999994" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>248</v>
+        <v>456</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -7338,25 +7333,25 @@
     </row>
     <row r="11" spans="1:15" ht="75.599999999999994" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -7364,1494 +7359,1494 @@
     </row>
     <row r="12" spans="1:15" ht="75.599999999999994" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="230.4">
       <c r="A13" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:15" ht="144">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="129.6">
       <c r="A15" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:15" ht="158.4">
       <c r="A16" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="144">
       <c r="A17" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="172.8">
       <c r="A18" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="172.8">
       <c r="A19" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="158.4">
       <c r="A20" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="172.8">
       <c r="A21" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="158.4">
       <c r="A22" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="187.2">
       <c r="A23" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="172.8">
       <c r="A24" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="187.2">
       <c r="A25" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="172.8">
       <c r="A26" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="187.2">
       <c r="A27" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="158.4">
       <c r="A28" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="158.4">
       <c r="A29" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="129.6">
       <c r="A30" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="201.6">
       <c r="A31" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="201.6">
       <c r="A32" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="216">
       <c r="A33" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="216">
       <c r="A34" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="100.2" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="147" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="147" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="147" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" ht="147" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:10" ht="127.2" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10" ht="172.8">
       <c r="A41" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="245.4" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="172.8">
       <c r="A43" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" ht="83.4" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="201.6">
       <c r="A45" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="302.39999999999998">
       <c r="A46" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10" ht="302.39999999999998">
       <c r="A47" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J47" s="16"/>
     </row>
     <row r="48" spans="1:10" ht="409.6">
       <c r="A48" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:10" ht="409.6">
       <c r="A49" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:10" ht="127.95" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>24</v>
@@ -8860,726 +8855,726 @@
         <v>25</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J66" s="15"/>
     </row>
     <row r="67" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J67" s="15"/>
     </row>
     <row r="68" spans="1:10" ht="144">
       <c r="A68" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="158.4">
       <c r="A69" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="158.4">
       <c r="A70" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" ht="144">
       <c r="A71" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="144">
       <c r="A72" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="144">
       <c r="A73" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J73" s="15"/>
     </row>
     <row r="74" spans="1:10" ht="201.6">
       <c r="A74" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="144">
       <c r="A75" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="125.4" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="125.4" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="129.6">
       <c r="A78" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J78" s="15"/>
     </row>
     <row r="79" spans="1:10" ht="158.4">
       <c r="A79" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J79" s="15"/>
     </row>
     <row r="80" spans="1:10" ht="97.2" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:10" ht="172.8">
       <c r="A81" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="132" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="1:10" ht="158.4">
       <c r="A83" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="144">
       <c r="A84" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J84" s="15"/>
     </row>
     <row r="85" spans="1:10" ht="172.8">
       <c r="A85" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J85" s="15"/>
     </row>
     <row r="86" spans="1:10" ht="172.8">
       <c r="A86" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J86" s="15"/>
     </row>
     <row r="87" spans="1:10" ht="201.6">
       <c r="A87" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J87" s="14"/>
     </row>
     <row r="88" spans="1:10" ht="115.2">
       <c r="A88" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:10" ht="104.4" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="90.6" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>24</v>
@@ -9591,720 +9586,720 @@
         <v>17</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J91" s="14"/>
     </row>
     <row r="92" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J92" s="15"/>
     </row>
     <row r="93" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J93" s="15"/>
     </row>
     <row r="94" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" ht="112.95" customHeight="1">
       <c r="A108" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F108" s="27" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="H108" s="17"/>
       <c r="I108" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J108" s="17"/>
     </row>
     <row r="109" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" ht="75.599999999999994" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B110" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C110" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>213</v>
-      </c>
       <c r="E110" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F110" s="28" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H110" s="18"/>
       <c r="I110" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J110" s="18"/>
     </row>
     <row r="111" spans="1:10" ht="111" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E111" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G111" s="25" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" ht="142.94999999999999" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F112" s="28" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H112" s="18"/>
       <c r="I112" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J112" s="18"/>
     </row>
     <row r="113" spans="1:10" ht="144">
       <c r="A113" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G113" s="25" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" ht="129.6">
       <c r="A114" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H114" s="18"/>
       <c r="I114" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J114" s="18"/>
     </row>
     <row r="115" spans="1:10" ht="151.05000000000001" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="E115" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" ht="151.05000000000001" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E116" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J116" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E108 E109 E110 E111 E112 E113 E114 E115 E116 E2:E11 E13:E107">
       <formula1>"full match,partial match,skip"</formula1>
     </dataValidation>
@@ -10373,7 +10368,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="72">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -10384,20 +10379,20 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="86.4">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -10408,20 +10403,20 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="86.4">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -10434,36 +10429,36 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -10471,49 +10466,49 @@
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="118.2" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="96.6" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -10521,27 +10516,27 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="118.2" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J8" s="4"/>
     </row>

--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="761">
   <si>
     <t xml:space="preserve">ProgramName</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t xml:space="preserve">Get the detail cross_chain storemanGroup info such as erc20, eos contract, like the quota, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -4635,9 +4638,6 @@
   </si>
   <si>
     <t xml:space="preserve">Get P2SH X by Hash X.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -7333,6 +7333,87 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">TC5034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getValidatorActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getValidatorActivity",
+  "params": {
+   "chainType":"WAN",
+   "epochID":18104
+  }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "result":{
+"epLeader":[
+"0x880d861a8bb6909885bbc65f9fc255bbd11a5825",
+"0xc7afae3c9e99af27fe3eaa10f6ec73cd2dbe003b",
+"0x882c9c16c05496d7b5374840936aec1af2a16553",
+"0x54945447375e25d03033099c540f0998dfa4152d",
+"0x71d063d48ac747dd9ef455cc5a58272c04660983",
+"0xd5551afd5c976a8eaac478f438f51aea4547eda9",
+"0xdfd7aa554653ca236c197ad746edc2954ca172df",
+"0x2c72d7a8c02752fcfafbaea5a63c53056cfaf547",
+"0x73494477f3a099415348cd33e3d46a07f4052600",
+"0x847437144ab96c6c499cdee9edc4d64032d06c86",
+"0x0b80f69fcb2564479058e4d28592e095828d24aa",
+"0x54945447375e25d03033099c540f0998dfa4152d",
+"0x742d898d2ee28a338f03af79c47762a908281a6a",
+"0x93c8ea0326ef334bdc3011e74cd1a6d78ce0594d",
+"0x5c1f00ff943de649519ff1ff35ac5b4c62b90964",
+"0x2a6e8c39d4e9f9152958649fc5dbdb9c68cfcb0b",
+"0xc46b1935326ba2423a9f4bbabf97f74d47f37d59",
+"0xbeb30b68160d845593f01aeb6ad9b6e3cc2e3277",
+"0x3daddc5a590808694eb1b732636a70194ad3d98e",
+"0x266ddcfdbe3ded75e0e511e6356bca052b221c6b",
+"0xb9d6c1a6e52119026cb5d2a82457f5fd6bc7e0c9",
+"0xb44a825eb3f0539f6593ea05740c9f2686973f3c",
+"0xa4539e1bdffceb3557ffb81f87a92e2159f6d637",
+"0xb64b60ba915bc16dc71ea59c9950c1538dcead9c"
+],
+"epActivity":[0,1,0,1,0,1,1,1,1,0,1,1,1,1,1,0,1,0,1,0,1,1,0,0],
+"rpLeader":[
+"0xee1ad9c4f9d81f900221e95ee04246b6254b0c6f",
+"0xaadb06ebb95f165155f12a38bdcb092ac66e0344",
+"0xdfd7aa554653ca236c197ad746edc2954ca172df",
+"0x4bf9fd7308d0849a62c3a7dd71c5190e57c28756",
+"0xb44a825eb3f0539f6593ea05740c9f2686973f3c",
+"0x3628bf135f36c6e26a824ec9152885505f3fbc2a",
+"0x2866bca06ff1d6afe52298f9fc759ea9b80f6902",
+"0x0b80f69fcb2564479058e4d28592e095828d24aa",
+"0x46530055144fe9365eaae87ba623e2f91cd7eff2",
+"0x36fad9acaf51a13527375b1ffc3d5a749153efdb",
+"0xf8fff523fb1450942dd2cd2b29837eaec2c4c860",
+"0x71d063d48ac747dd9ef455cc5a58272c04660983",
+"0x1b7740df685f9d34773d5a2aba6ab3a2c1407f40",
+"0xb58230a7923a6a1941016aa1682e212def899ed1",
+"0x54945447375e25d03033099c540f0998dfa4152d",
+"0x742d898d2ee28a338f03af79c47762a908281a6a",
+"0x85bbe8f965b1719f7089ee9912e7c9b10fe0a999",
+"0xbee03f252dfd38f4f8d10d0664fb50c36526a611",
+"0x2f13896d55ea42b58578cd835064233f8e80a929",
+"0xf543da34477455ccd0ce9b153baaf344cefd9413",
+"0xef09644a88ace467475c2f333f7bb8ffc9427452",
+"0x0adc1b8d04d3856b394c8a170fbaea68589c4de6",
+"0xaadb06ebb95f165155f12a38bdcb092ac66e0344",
+"0x38550ef70511ff71924c4b58220b54e65720384f",
+"0xda8fa1aee77709d37f59fb96afd4cf10ccaeb6ce"
+],
+"rpActivity":[1,1,1,1,0,1,1,1,1,0,1,0,0,1,0,0,1,1,0,0,0,0,1,1,1]
+}
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">status</t>
   </si>
   <si>
@@ -7791,8 +7872,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J190" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:J190"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J191" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:J191">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="full match"/>
+        <filter val="partial match"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="ChainType"/>
@@ -7821,11 +7909,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7876,25 +7964,25 @@
   <dimension ref="A1:O65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
-      <selection pane="bottomRight" activeCell="E164" activeCellId="0" sqref="E164"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="105.724696356275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.619433198381"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8203,7 +8291,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="75.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>67</v>
       </c>
@@ -8217,10 +8305,10 @@
         <v>68</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>66</v>
@@ -8231,1494 +8319,1494 @@
     </row>
     <row r="13" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="230.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="187.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="187.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="187.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="201.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="201.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="100.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="127.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="245.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="83.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="201.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="302.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="302.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="127.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>36</v>
@@ -9730,723 +9818,723 @@
         <v>54</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="201.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="230.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="125.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="125.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="122.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="149.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="97.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="132" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J87" s="13"/>
     </row>
     <row r="88" customFormat="false" ht="201.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="90.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>36</v>
@@ -10458,620 +10546,620 @@
         <v>54</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J92" s="12"/>
     </row>
     <row r="93" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J93" s="13"/>
     </row>
     <row r="94" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J94" s="13"/>
     </row>
     <row r="95" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="112.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J109" s="16"/>
     </row>
     <row r="110" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J111" s="16"/>
     </row>
     <row r="112" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="142.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J113" s="16"/>
     </row>
-    <row r="114" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="144" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>428</v>
@@ -11081,7 +11169,7 @@
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J114" s="5"/>
     </row>
@@ -11090,7 +11178,7 @@
         <v>430</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>431</v>
@@ -11109,7 +11197,7 @@
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J115" s="16"/>
     </row>
@@ -11118,13 +11206,13 @@
         <v>435</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>54</v>
@@ -11137,7 +11225,7 @@
       </c>
       <c r="H116" s="5"/>
       <c r="I116" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J116" s="5"/>
     </row>
@@ -11146,10 +11234,10 @@
         <v>438</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>439</v>
@@ -11165,11 +11253,11 @@
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="136" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="14" t="s">
         <v>442</v>
       </c>
@@ -11177,27 +11265,27 @@
         <v>443</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>444</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="136" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="14" t="s">
         <v>445</v>
       </c>
@@ -11205,27 +11293,27 @@
         <v>443</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>446</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="149.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="149.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="14" t="s">
         <v>447</v>
       </c>
@@ -11233,27 +11321,27 @@
         <v>443</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>448</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="149.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="149.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="14" t="s">
         <v>449</v>
       </c>
@@ -11261,27 +11349,27 @@
         <v>443</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>450</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="351.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="351.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="s">
         <v>451</v>
       </c>
@@ -11289,13 +11377,13 @@
         <v>443</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>452</v>
@@ -11305,11 +11393,11 @@
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="122.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="122.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="14" t="s">
         <v>454</v>
       </c>
@@ -11317,27 +11405,27 @@
         <v>443</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>455</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="122.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="122.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="14" t="s">
         <v>456</v>
       </c>
@@ -11345,27 +11433,27 @@
         <v>443</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>457</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="14" t="s">
         <v>458</v>
       </c>
@@ -11373,13 +11461,13 @@
         <v>443</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>459</v>
@@ -11389,11 +11477,11 @@
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="14" t="s">
         <v>461</v>
       </c>
@@ -11401,13 +11489,13 @@
         <v>443</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>462</v>
@@ -11417,11 +11505,11 @@
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J126" s="7"/>
     </row>
-    <row r="127" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="14" t="s">
         <v>463</v>
       </c>
@@ -11435,7 +11523,7 @@
         <v>465</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>466</v>
@@ -11445,11 +11533,11 @@
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J127" s="7"/>
     </row>
-    <row r="128" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="14" t="s">
         <v>468</v>
       </c>
@@ -11463,7 +11551,7 @@
         <v>470</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>471</v>
@@ -11473,11 +11561,11 @@
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J128" s="7"/>
     </row>
-    <row r="129" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="14" t="s">
         <v>473</v>
       </c>
@@ -11491,7 +11579,7 @@
         <v>470</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>474</v>
@@ -11501,11 +11589,11 @@
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J129" s="7"/>
     </row>
-    <row r="130" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="14" t="s">
         <v>476</v>
       </c>
@@ -11519,7 +11607,7 @@
         <v>477</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>478</v>
@@ -11529,11 +11617,11 @@
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J130" s="7"/>
     </row>
-    <row r="131" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="14" t="s">
         <v>480</v>
       </c>
@@ -11547,7 +11635,7 @@
         <v>481</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>482</v>
@@ -11557,11 +11645,11 @@
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J131" s="7"/>
     </row>
-    <row r="132" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="14" t="s">
         <v>484</v>
       </c>
@@ -11575,7 +11663,7 @@
         <v>485</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>486</v>
@@ -11585,11 +11673,11 @@
       </c>
       <c r="H132" s="5"/>
       <c r="I132" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J132" s="7"/>
     </row>
-    <row r="133" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="14" t="s">
         <v>488</v>
       </c>
@@ -11603,7 +11691,7 @@
         <v>489</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>490</v>
@@ -11613,11 +11701,11 @@
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J133" s="7"/>
     </row>
-    <row r="134" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="14" t="s">
         <v>492</v>
       </c>
@@ -11631,7 +11719,7 @@
         <v>494</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>495</v>
@@ -11641,11 +11729,11 @@
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J134" s="7"/>
     </row>
-    <row r="135" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="14" t="s">
         <v>497</v>
       </c>
@@ -11659,7 +11747,7 @@
         <v>498</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>499</v>
@@ -11669,11 +11757,11 @@
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J135" s="7"/>
     </row>
-    <row r="136" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="14" t="s">
         <v>501</v>
       </c>
@@ -11687,7 +11775,7 @@
         <v>503</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>504</v>
@@ -11697,11 +11785,11 @@
       </c>
       <c r="H136" s="5"/>
       <c r="I136" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J136" s="7"/>
     </row>
-    <row r="137" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="14" t="s">
         <v>506</v>
       </c>
@@ -11715,7 +11803,7 @@
         <v>507</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>508</v>
@@ -11725,11 +11813,11 @@
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J137" s="7"/>
     </row>
-    <row r="138" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="14" t="s">
         <v>510</v>
       </c>
@@ -11743,7 +11831,7 @@
         <v>512</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>513</v>
@@ -11753,11 +11841,11 @@
       </c>
       <c r="H138" s="5"/>
       <c r="I138" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J138" s="7"/>
     </row>
-    <row r="139" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="14" t="s">
         <v>514</v>
       </c>
@@ -11771,7 +11859,7 @@
         <v>515</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>516</v>
@@ -11781,11 +11869,11 @@
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J139" s="7"/>
     </row>
-    <row r="140" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="s">
         <v>518</v>
       </c>
@@ -11799,7 +11887,7 @@
         <v>519</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>520</v>
@@ -11809,11 +11897,11 @@
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J140" s="7"/>
     </row>
-    <row r="141" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="14" t="s">
         <v>521</v>
       </c>
@@ -11827,7 +11915,7 @@
         <v>523</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>524</v>
@@ -11837,11 +11925,11 @@
       </c>
       <c r="H141" s="5"/>
       <c r="I141" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J141" s="7"/>
     </row>
-    <row r="142" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="14" t="s">
         <v>526</v>
       </c>
@@ -11855,7 +11943,7 @@
         <v>527</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>528</v>
@@ -11865,11 +11953,11 @@
       </c>
       <c r="H142" s="5"/>
       <c r="I142" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J142" s="7"/>
     </row>
-    <row r="143" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="14" t="s">
         <v>530</v>
       </c>
@@ -11883,7 +11971,7 @@
         <v>531</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>532</v>
@@ -11893,11 +11981,11 @@
       </c>
       <c r="H143" s="5"/>
       <c r="I143" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J143" s="7"/>
     </row>
-    <row r="144" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
         <v>533</v>
       </c>
@@ -11911,7 +11999,7 @@
         <v>535</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>536</v>
@@ -11921,11 +12009,11 @@
       </c>
       <c r="H144" s="5"/>
       <c r="I144" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J144" s="7"/>
     </row>
-    <row r="145" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="14" t="s">
         <v>538</v>
       </c>
@@ -11939,7 +12027,7 @@
         <v>535</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>539</v>
@@ -11949,11 +12037,11 @@
       </c>
       <c r="H145" s="5"/>
       <c r="I145" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J145" s="7"/>
     </row>
-    <row r="146" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="14" t="s">
         <v>541</v>
       </c>
@@ -11967,7 +12055,7 @@
         <v>542</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>543</v>
@@ -11977,11 +12065,11 @@
       </c>
       <c r="H146" s="5"/>
       <c r="I146" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J146" s="7"/>
     </row>
-    <row r="147" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="14" t="s">
         <v>545</v>
       </c>
@@ -11995,7 +12083,7 @@
         <v>546</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>547</v>
@@ -12005,11 +12093,11 @@
       </c>
       <c r="H147" s="5"/>
       <c r="I147" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J147" s="7"/>
     </row>
-    <row r="148" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="14" t="s">
         <v>548</v>
       </c>
@@ -12023,7 +12111,7 @@
         <v>550</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>551</v>
@@ -12033,11 +12121,11 @@
       </c>
       <c r="H148" s="5"/>
       <c r="I148" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J148" s="7"/>
     </row>
-    <row r="149" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="14" t="s">
         <v>553</v>
       </c>
@@ -12051,7 +12139,7 @@
         <v>554</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>555</v>
@@ -12061,11 +12149,11 @@
       </c>
       <c r="H149" s="5"/>
       <c r="I149" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J149" s="7"/>
     </row>
-    <row r="150" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="14" t="s">
         <v>557</v>
       </c>
@@ -12079,7 +12167,7 @@
         <v>558</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>559</v>
@@ -12089,11 +12177,11 @@
       </c>
       <c r="H150" s="5"/>
       <c r="I150" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J150" s="7"/>
     </row>
-    <row r="151" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="14" t="s">
         <v>561</v>
       </c>
@@ -12107,7 +12195,7 @@
         <v>562</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>563</v>
@@ -12117,11 +12205,11 @@
       </c>
       <c r="H151" s="5"/>
       <c r="I151" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J151" s="7"/>
     </row>
-    <row r="152" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="14" t="s">
         <v>564</v>
       </c>
@@ -12135,7 +12223,7 @@
         <v>566</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>567</v>
@@ -12145,11 +12233,11 @@
       </c>
       <c r="H152" s="5"/>
       <c r="I152" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J152" s="7"/>
     </row>
-    <row r="153" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="14" t="s">
         <v>569</v>
       </c>
@@ -12163,7 +12251,7 @@
         <v>566</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>570</v>
@@ -12173,11 +12261,11 @@
       </c>
       <c r="H153" s="5"/>
       <c r="I153" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J153" s="7"/>
     </row>
-    <row r="154" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="14" t="s">
         <v>572</v>
       </c>
@@ -12191,7 +12279,7 @@
         <v>573</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>574</v>
@@ -12201,11 +12289,11 @@
       </c>
       <c r="H154" s="5"/>
       <c r="I154" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J154" s="7"/>
     </row>
-    <row r="155" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="14" t="s">
         <v>576</v>
       </c>
@@ -12219,7 +12307,7 @@
         <v>577</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>578</v>
@@ -12229,11 +12317,11 @@
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J155" s="7"/>
     </row>
-    <row r="156" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="147" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="14" t="s">
         <v>580</v>
       </c>
@@ -12247,7 +12335,7 @@
         <v>581</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>427</v>
+        <v>69</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>582</v>
@@ -12257,7 +12345,7 @@
       </c>
       <c r="H156" s="5"/>
       <c r="I156" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J156" s="7"/>
     </row>
@@ -12266,7 +12354,7 @@
         <v>584</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>585</v>
@@ -12285,7 +12373,7 @@
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J157" s="7"/>
     </row>
@@ -12294,7 +12382,7 @@
         <v>589</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>585</v>
@@ -12309,11 +12397,11 @@
         <v>591</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H158" s="5"/>
       <c r="I158" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J158" s="7"/>
     </row>
@@ -12322,7 +12410,7 @@
         <v>592</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>593</v>
@@ -12341,7 +12429,7 @@
       </c>
       <c r="H159" s="5"/>
       <c r="I159" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J159" s="7"/>
     </row>
@@ -12350,7 +12438,7 @@
         <v>597</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>593</v>
@@ -12365,11 +12453,11 @@
         <v>599</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H160" s="5"/>
       <c r="I160" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J160" s="7"/>
     </row>
@@ -12378,7 +12466,7 @@
         <v>600</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>601</v>
@@ -12397,7 +12485,7 @@
       </c>
       <c r="H161" s="5"/>
       <c r="I161" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J161" s="7"/>
     </row>
@@ -12406,7 +12494,7 @@
         <v>605</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>606</v>
@@ -12425,7 +12513,7 @@
       </c>
       <c r="H162" s="5"/>
       <c r="I162" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J162" s="7"/>
     </row>
@@ -12434,7 +12522,7 @@
         <v>610</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>611</v>
@@ -12453,7 +12541,7 @@
       </c>
       <c r="H163" s="5"/>
       <c r="I163" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J163" s="7"/>
     </row>
@@ -12462,7 +12550,7 @@
         <v>615</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>616</v>
@@ -12481,7 +12569,7 @@
       </c>
       <c r="H164" s="5"/>
       <c r="I164" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J164" s="7"/>
     </row>
@@ -12490,7 +12578,7 @@
         <v>620</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>621</v>
@@ -12509,7 +12597,7 @@
       </c>
       <c r="H165" s="5"/>
       <c r="I165" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J165" s="7"/>
     </row>
@@ -12518,7 +12606,7 @@
         <v>624</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>625</v>
@@ -12537,7 +12625,7 @@
       </c>
       <c r="H166" s="5"/>
       <c r="I166" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J166" s="7"/>
     </row>
@@ -12546,7 +12634,7 @@
         <v>629</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>630</v>
@@ -12565,7 +12653,7 @@
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J167" s="7"/>
     </row>
@@ -12574,7 +12662,7 @@
         <v>634</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>635</v>
@@ -12593,7 +12681,7 @@
       </c>
       <c r="H168" s="5"/>
       <c r="I168" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J168" s="7"/>
     </row>
@@ -12602,7 +12690,7 @@
         <v>639</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>640</v>
@@ -12621,7 +12709,7 @@
       </c>
       <c r="H169" s="5"/>
       <c r="I169" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J169" s="7"/>
     </row>
@@ -12630,7 +12718,7 @@
         <v>644</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>645</v>
@@ -12649,7 +12737,7 @@
       </c>
       <c r="H170" s="5"/>
       <c r="I170" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J170" s="7"/>
     </row>
@@ -12658,7 +12746,7 @@
         <v>649</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>650</v>
@@ -12677,7 +12765,7 @@
       </c>
       <c r="H171" s="5"/>
       <c r="I171" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J171" s="7"/>
     </row>
@@ -12686,7 +12774,7 @@
         <v>654</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>655</v>
@@ -12705,7 +12793,7 @@
       </c>
       <c r="H172" s="5"/>
       <c r="I172" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J172" s="7"/>
     </row>
@@ -12714,7 +12802,7 @@
         <v>659</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>655</v>
@@ -12733,7 +12821,7 @@
       </c>
       <c r="H173" s="5"/>
       <c r="I173" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J173" s="7"/>
     </row>
@@ -12742,7 +12830,7 @@
         <v>663</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>664</v>
@@ -12761,7 +12849,7 @@
       </c>
       <c r="H174" s="5"/>
       <c r="I174" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J174" s="7"/>
     </row>
@@ -12770,7 +12858,7 @@
         <v>668</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>669</v>
@@ -12789,7 +12877,7 @@
       </c>
       <c r="H175" s="5"/>
       <c r="I175" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J175" s="7"/>
     </row>
@@ -12798,7 +12886,7 @@
         <v>673</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>674</v>
@@ -12817,7 +12905,7 @@
       </c>
       <c r="H176" s="5"/>
       <c r="I176" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J176" s="7"/>
     </row>
@@ -12826,7 +12914,7 @@
         <v>678</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>679</v>
@@ -12845,7 +12933,7 @@
       </c>
       <c r="H177" s="5"/>
       <c r="I177" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J177" s="7"/>
     </row>
@@ -12854,7 +12942,7 @@
         <v>683</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>684</v>
@@ -12873,7 +12961,7 @@
       </c>
       <c r="H178" s="5"/>
       <c r="I178" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J178" s="7"/>
     </row>
@@ -12882,7 +12970,7 @@
         <v>688</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>689</v>
@@ -12891,7 +12979,7 @@
         <v>685</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>690</v>
@@ -12901,7 +12989,7 @@
       </c>
       <c r="H179" s="5"/>
       <c r="I179" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J179" s="7"/>
     </row>
@@ -12910,7 +12998,7 @@
         <v>692</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>693</v>
@@ -12929,7 +13017,7 @@
       </c>
       <c r="H180" s="5"/>
       <c r="I180" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J180" s="7"/>
     </row>
@@ -12938,7 +13026,7 @@
         <v>697</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>698</v>
@@ -12957,7 +13045,7 @@
       </c>
       <c r="H181" s="5"/>
       <c r="I181" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J181" s="7"/>
     </row>
@@ -12966,7 +13054,7 @@
         <v>701</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>698</v>
@@ -12985,7 +13073,7 @@
       </c>
       <c r="H182" s="5"/>
       <c r="I182" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J182" s="7"/>
     </row>
@@ -12994,7 +13082,7 @@
         <v>704</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>705</v>
@@ -13013,7 +13101,7 @@
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J183" s="7"/>
     </row>
@@ -13022,7 +13110,7 @@
         <v>709</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>705</v>
@@ -13041,7 +13129,7 @@
       </c>
       <c r="H184" s="5"/>
       <c r="I184" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J184" s="7"/>
     </row>
@@ -13050,7 +13138,7 @@
         <v>712</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>713</v>
@@ -13069,7 +13157,7 @@
       </c>
       <c r="H185" s="5"/>
       <c r="I185" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J185" s="7"/>
     </row>
@@ -13078,7 +13166,7 @@
         <v>717</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>718</v>
@@ -13097,7 +13185,7 @@
       </c>
       <c r="H186" s="5"/>
       <c r="I186" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J186" s="7"/>
     </row>
@@ -13106,7 +13194,7 @@
         <v>722</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>723</v>
@@ -13125,7 +13213,7 @@
       </c>
       <c r="H187" s="5"/>
       <c r="I187" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J187" s="7"/>
     </row>
@@ -13134,7 +13222,7 @@
         <v>727</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>728</v>
@@ -13143,7 +13231,7 @@
         <v>729</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>730</v>
@@ -13153,7 +13241,7 @@
       </c>
       <c r="H188" s="5"/>
       <c r="I188" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J188" s="7"/>
     </row>
@@ -13162,7 +13250,7 @@
         <v>732</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>728</v>
@@ -13171,7 +13259,7 @@
         <v>729</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>733</v>
@@ -13181,7 +13269,7 @@
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J189" s="7"/>
     </row>
@@ -13190,7 +13278,7 @@
         <v>735</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>736</v>
@@ -13209,14 +13297,42 @@
       </c>
       <c r="H190" s="5"/>
       <c r="I190" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J190" s="7"/>
+    </row>
+    <row r="191" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="H191" s="5"/>
+      <c r="I191" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J191" s="7"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E12 E14:E190" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E12 E14:E191" type="list">
       <formula1>"full match,partial match,skip"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13247,16 +13363,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="105.619433198381"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.6315789473684"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.51012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13283,7 +13399,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>13</v>
@@ -13294,7 +13410,7 @@
     </row>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -13305,20 +13421,20 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="7" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -13329,20 +13445,20 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -13355,36 +13471,36 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="96.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="7" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -13392,49 +13508,49 @@
     </row>
     <row r="6" customFormat="false" ht="118.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="96.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -13442,27 +13558,27 @@
     </row>
     <row r="8" customFormat="false" ht="118.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J8" s="5"/>
     </row>

--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="765">
   <si>
     <t xml:space="preserve">ProgramName</t>
   </si>
@@ -7414,6 +7414,31 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">TC5035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getSlotActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getSlotActivity",
+  "params": {
+   "chainType":"WAN",
+   "epochID":18104
+  }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "result":{"sltLeader":[],"slBlocks":[],"slActivity":0,"slCtrlCount":0}
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">status</t>
   </si>
   <si>
@@ -7909,11 +7934,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7964,25 +7989,25 @@
   <dimension ref="A1:O65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D190" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A190" activeCellId="0" sqref="A190"/>
+      <selection pane="bottomRight" activeCell="F192" activeCellId="0" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.619433198381"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.582995951417"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13329,10 +13354,38 @@
       </c>
       <c r="J191" s="7"/>
     </row>
+    <row r="192" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="H192" s="5"/>
+      <c r="I192" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J192" s="7"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E12 E14:E191" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E12 E14:E192" type="list">
       <formula1>"full match,partial match,skip"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13363,16 +13416,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.51012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.473684210526"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13399,7 +13452,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>13</v>
@@ -13421,14 +13474,14 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="7" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -13445,14 +13498,14 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="7" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -13471,14 +13524,14 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -13493,14 +13546,14 @@
         <v>156</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -13514,21 +13567,21 @@
         <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -13543,14 +13596,14 @@
         <v>156</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -13564,17 +13617,17 @@
         <v>306</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">

--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="766">
   <si>
     <t xml:space="preserve">ProgramName</t>
   </si>
@@ -5870,7 +5870,27 @@
     <t xml:space="preserve">{
   "jsonrpc": "2.0",
   "id": "user defined field",
-  "result":[{"address":"0xa4626e2bb450204c4b34bcc7525e585e8f678c0d","pubSec256":"0x04b7bf8d3868333f70a30041423c7db204b80b9be2e585c344cf3f391cbf77b17fd14f3058d4475d546355bf8c2709ed9ecf5f0cee9d021c90988af0e8cf52001b","pubBn256":"0x289787688eb80c1e223375a71f8d17110d638a9143afa190dc11b3c1e64cf92b21feb02ab7a1dcb31892210dfda458aff890fe9e7508292099ae6256f197b325","amount":"0xa968163f0a57b400000","stakeAmount":"0x297116712be7b468800000","lockEpochs":7,"nextLockEpochs":7,"from":"0xdbb2d6199457d11288f0097659bcec24738e158f","stakingEpoch":0,"feeRate":1500,"clients":[{"address":"0xfcc3736dc29bf9af7556fcc1dea10b53edaab51d","amount":"0x56bc75e2d63100000","stakeAmount":"0x1537da569da5bca00000","quitEpoch":18071}],"partners":[]}]
+  "result":[{
+    "address": "0xa4626e2bb450204c4b34bcc7525e585e8f678c0d",
+    "amount": "5e+22",
+    "clients": [{
+        "address": "0xfcc3736dc29bf9af7556fcc1dea10b53edaab51d",
+        "amount": 100000000000000000000,
+        "quitEpoch": 18071,
+        "votingPower": 1.002e+23
+    }],
+    "feeRate": 1500,
+    "feeRateChangedEpoch": 0,
+    "from": "0xdbb2d6199457d11288f0097659bcec24738e158f",
+    "lockEpochs": 7,
+    "maxFeeRate": 1500,
+    "nextLockEpochs": 7,
+    "partners": [],
+    "pubBn256": "0x289787688eb80c1e223375a71f8d17110d638a9143afa190dc11b3c1e64cf92b21feb02ab7a1dcb31892210dfda458aff890fe9e7508292099ae6256f197b325",
+    "pubSec256": "0x04b7bf8d3868333f70a30041423c7db204b80b9be2e585c344cf3f391cbf77b17fd14f3058d4475d546355bf8c2709ed9ecf5f0cee9d021c90988af0e8cf52001b",
+    "stakingEpoch": 0,
+    "votingPower": "5.01e+25"
+}]
 }</t>
   </si>
   <si>
@@ -5910,225 +5930,6 @@
     "address": "0x6273ce1f6f32e129f295f138d6e4ba6f0e19333e",
     "stakeInFromAddr": "0x6273ce1f6f32e129f295f138d6e4ba6f0e19333e",
     "incentive": "0x3bfc7868d51a26236",
-    "type": "validator"
-  },
-  {
-    "delegators": [
-      {
-        "address": "0x4e6b5f1abdd517739889334df047113bd736c546",
-        "incentive": "0x576b262facadd3ff",
-        "type": "delegator"
-      },
-      {
-        "address": "0xaec57fda357c84a2343dde18155007dd8ec5b468",
-        "incentive": "0x1f867b0d085a34eea",
-        "type": "delegator"
-      },
-      {
-        "address": "0x2bcafa915338b1048e3c5efea002286acd4d74b7",
-        "incentive": "0x3a3b7f4a7e16217",
-        "type": "delegator"
-      },
-      {
-        "address": "0x1c5c1e6578f2357f1cf2298fdbefdb43aa10498c",
-        "incentive": "0x576b262facadd3ff",
-        "type": "delegator"
-      },
-      {
-        "address": "0xfac0257190b5ab19cae78ce844fbf617f5ab5d64",
-        "incentive": "0x2c0f1757841612c8",
-        "type": "delegator"
-      }
-    ],
-    "address": "0x3628bf135f36c6e26a824ec9152885505f3fbc2a",
-    "stakeInFromAddr": "0xfac0257190b5ab19cae78ce844fbf617f5ab5d64",
-    "incentive": "0xf36d1cc52510cdc1",
-    "type": "validator"
-  },
-  {
-    "delegators": [
-      {
-        "address": "0x276246236c1522e0954e2a0289cd2b6d7e271c1b",
-        "incentive": "0x25b37a679b0f6ca",
-        "type": "delegator"
-      },
-      {
-        "address": "0xa078ecadd6011a0d8df127cb0be12b03f2db0599",
-        "incentive": "0x1d77fcc6c84d280d5",
-        "type": "delegator"
-      },
-      {
-        "address": "0x2c8b602f80bd500fbc0972748b78de916c7f1592",
-        "incentive": "0x78c6829e96c06377",
-        "type": "delegator"
-      },
-      {
-        "address": "0x6b5c3d699fdc981c9f08823d89c2b9ed5a3a231c",
-        "incentive": "0x41fa16354f5afe32",
-        "type": "delegator"
-      },
-      {
-        "address": "0x1b653484e2240a08217f69228c18c9fc245bf36e",
-        "incentive": "0x2b978587cb49d5aa",
-        "type": "delegator"
-      },
-      {
-        "address": "0xe3d0b7a5b18d818b7ba78ff4a53b0a135dcf284f",
-        "incentive": "0x60078571b04d45b2",
-        "type": "delegator"
-      },
-      {
-        "address": "0x098151b3636100274f72844f4776e38c1ec5022a",
-        "incentive": "0x1534f4da4738ad22",
-        "type": "delegator"
-      },
-      {
-        "address": "0x37e3d9a65c578296be0b4009f882d8d0eb44921f",
-        "incentive": "0x21e4adc92c6c54a",
-        "type": "delegator"
-      },
-      {
-        "address": "0x9bef96cd5f6bb4272bdd2cb309632594bea606af",
-        "incentive": "0x12d9bd33cd87b657",
-        "type": "delegator"
-      },
-      {
-        "address": "0xfcc3736dc29bf9af7556fcc1dea10b53edaab51d",
-        "incentive": "0x3c525d7291b247",
-        "type": "delegator"
-      },
-      {
-        "address": "0x8bf12b4cd3b41d40b2adfdf2857b2077d4194a44",
-        "incentive": "0x96cde99e6c3db2b",
-        "type": "delegator"
-      }
-    ],
-    "address": "0xee1ad9c4f9d81f900221e95ee04246b6254b0c6f",
-    "stakeInFromAddr": "0xee1ad9c4f9d81f900221e95ee04246b6254b0c6f",
-    "incentive": "0x764d137ecef48eac",
-    "type": "validator"
-  },
-  {
-    "delegators": [
-      {
-        "address": "0x81ad5c65a815f8dc28e0fd1d17ac4fa38f8a6838",
-        "incentive": "0x78b093af02e111",
-        "type": "delegator"
-      },
-      {
-        "address": "0x4e6b5f1abdd517739889334df047113bd736c546",
-        "incentive": "0x13afa1b719d597636",
-        "type": "delegator"
-      },
-      {
-        "address": "0xbac92b2b69570f5fb554434ea294e1c3548ea251",
-        "incentive": "0x28376d59f73c11",
-        "type": "delegator"
-      },
-      {
-        "address": "0xb16569c21ff89446c2ac8321dc44b757c5e9eca9",
-        "incentive": "0x28376d59f73c11",
-        "type": "delegator"
-      },
-      {
-        "address": "0xa64740b30ecb1d855d8bdfd1597e2ba46addf98c",
-        "incentive": "0x78a655f86cbd40",
-        "type": "delegator"
-      },
-      {
-        "address": "0xa4626e2bb450204c4b34bcc7525e585e8f678c0d",
-        "incentive": "0x28376d59f73c11",
-        "type": "delegator"
-      },
-      {
-        "address": "0x73c23173aeaa5bd183ad833591ae2ef0e6865ddc",
-        "incentive": "0x28376d59f73c11",
-        "type": "delegator"
-      },
-      {
-        "address": "0x482f95c0deac37ca228ecb2d8226399d44acffbe",
-        "incentive": "0x28795161185b2c",
-        "type": "delegator"
-      },
-      {
-        "address": "0x7a7db9893db4b8e23ec8eff6c7d78fa2e9465463",
-        "incentive": "0xd532796d0a6615",
-        "type": "delegator"
-      },
-      {
-        "address": "0x50b3d94aeda23a5336946eaa4c544b79872503a1",
-        "incentive": "0x51a3b79559b9f0",
-        "type": "delegator"
-      },
-      {
-        "address": "0x0ec2d606a1bc52ef3ec58ee80e4643aa8593e459",
-        "incentive": "0x78a6480de5b434",
-        "type": "delegator"
-      },
-      {
-        "address": "0xe57fcb59c510354b414b2c982ae1ddc4b0f3d329",
-        "incentive": "0x1922a4583a858b0",
-        "type": "delegator"
-      },
-      {
-        "address": "0x165d1526ecbb8f3dad789c640c5b0d6a3d499496",
-        "incentive": "0x78a6480de5b434",
-        "type": "delegator"
-      },
-      {
-        "address": "0x5fda55447a542209dc836114f1dbdb699a17d354",
-        "incentive": "0x4ee3ed9bb353556a",
-        "type": "delegator"
-      },
-      {
-        "address": "0xb3850a2c15c208075197645fc9a4010f8f7634a0",
-        "incentive": "0x3ed69adc924ddb92",
-        "type": "delegator"
-      },
-      {
-        "address": "0xbf788519e3882f0273a051c28eb112d1ae125010",
-        "incentive": "0x1ba61b2dd9f94c2",
-        "type": "delegator"
-      },
-      {
-        "address": "0x689ceef535fbaa8bb2a21afa0a74bb3cf134f91f",
-        "incentive": "0x4c694fc488f221",
-        "type": "delegator"
-      },
-      {
-        "address": "0xaec57fda357c84a2343dde18155007dd8ec5b468",
-        "incentive": "0x1922a4583a858b0",
-        "type": "delegator"
-      },
-      {
-        "address": "0xa220392d9d4c1a6f756ea6ca6a6a08d76a3ba590",
-        "incentive": "0x1f64de2996eae42",
-        "type": "delegator"
-      },
-      {
-        "address": "0x5987368c7b15cafc8c8f3cc242356664496925c9",
-        "incentive": "0xef49caa418a569",
-        "type": "delegator"
-      },
-      {
-        "address": "0xfcc3736dc29bf9af7556fcc1dea10b53edaab51d",
-        "incentive": "0x289e61a51afcab",
-        "type": "delegator"
-      },
-      {
-        "address": "0x8bf12b4cd3b41d40b2adfdf2857b2077d4194a44",
-        "incentive": "0x1922a4583a858b0",
-        "type": "delegator"
-      },
-      {
-        "address": "0x51253d40bb113827781de47e5a2d41f41924431d",
-        "incentive": "0x28376d59f73c11",
-        "type": "delegator"
-      }
-    ],
-    "address": "0xa4626e2bb450204c4b34bcc7525e585e8f678c0d",
-    "stakeInFromAddr": "0xdbb2d6199457d11288f0097659bcec24738e158f",
-    "incentive": "0xaf6f730467435b9f",
     "type": "validator"
   },
   {
@@ -6485,432 +6286,6 @@
     "pubBn256": "0x093e87d8f1cf8d967be90fc841b73180e8185e480e5b1937c5bd0bf5b47288500598f33d4142bf226b2c8ddaf7358c3093423efdeb1b0a74bfba9d5749ecdf9c"
   },
   {
-    "type": 0,
-    "secAddr": "0x46530055144fe9365eaae87ba623e2f91cd7eff2",
-    "pubSec256": "0x042b7d4be32d25769472ea7c8d432bbad5abee051c048e4de425e6feb288fde6f33a16269e4e85fbda4f857a7d5eca8d33793b9249c83517a3214b64475cd50176",
-    "pubBn256": "0x2a55a4fb7c648d2dbfd09c93d087011813c34188cd6cc880a6a69bea935e08982dc804dc1561ee508745e555295599a7b27f0e897ef2b511e1ebd26c8ca40fa2"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x0e92d125ba28852a11428fcb63b6f0e44a52962f",
-    "pubSec256": "0x04a7cda19738c9866c04a2670aebcbb3029c23f65656a0cf11238306294e78784d7851026cd17dd79b7782de1e1d1efdc93640470aee3effb96eda2ed436621564",
-    "pubBn256": "0x02a20eccb4287e86d2abb98b20cd3069865d0d6a2985c8d6d4f2889ce1ce1dbb12fde3d58064ecc683425615fa067fff589b671815f825c41da8b663c6f83968"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xee1ad9c4f9d81f900221e95ee04246b6254b0c6f",
-    "pubSec256": "0x04af598686b3e07247ad5711d3bf3e049991ad211f830087acedb940cc0619cc29168979edeb328010ef152b40b8ea462f4ce636f0af9400c0331fd06e60eba271",
-    "pubBn256": "0x1d3df388d2acd775933ae632a6f9e4097538c7cd4e55c725b0403c3eba2731b3002d971e2566934c737e5ed7ae5464d65fac4f0b2f721a4901609aa8b18eaf77"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xb58230a7923a6a1941016aa1682e212def899ed1",
-    "pubSec256": "0x0480fff6b905ed108bbe3dc7541f9f001a08e5ea95ff7299c4e74a576c676f38e4d7d83eaa05b7608bc938f970f265434e9d0524faecbd78d71dd36e01203ab578",
-    "pubBn256": "0x257a50c9f52074173dd3ac376e08db94ddc4463b42fd1dfd96a73cfa6bb044da1809adb6f29552b501f4c663440c0253bc5c611a3969e5205f900ee3dfee0cd9"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xb9d6c1a6e52119026cb5d2a82457f5fd6bc7e0c9",
-    "pubSec256": "0x0408336c786ec9effa15576a3158b248606ce2567d1e26845b0f2cf7470a501f4c86a4152234d11ffd66740b3bf350b1ec44e0c9ac297089ca97050d3c806dc576",
-    "pubBn256": "0x1c8c774d939e080d4d6087cdb0aed8f703ad20373125424777a0585fee9134dd02fa9c1c2483ede0275e7a2542b3aa889c86c76d6404694a9e740a76f94694e9"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xdfd7aa554653ca236c197ad746edc2954ca172df",
-    "pubSec256": "0x042627fa63ebcc45718a2cad243cced286b869b2b3e5a9221826b2cc637fe4d3915f16054f2edfafd2220ac71f61404a0b5640bf6a88f93e515a166f25d954b345",
-    "pubBn256": "0x2319ad27f2c5a74fc92098983ac96a171745e2fd7c37e3d650dd0c274dd5dc98025fff4952fb755b55f820424d4a0b46c76d58ba244a258e09a5a3053f6cd37c"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x1b7740df685f9d34773d5a2aba6ab3a2c1407f40",
-    "pubSec256": "0x04caa69a190fc9e35b358b4cc0872c6b40eb9ce31abd5a38f66cad2a14c4e30fa0ea9c0de745a5c259630cf7f85159c862e8678a9d71b51e72c790afe41b1d1bd9",
-    "pubBn256": "0x20e40cb1a13954eb67f99c8ad39639c6e63be0882a146ebed9dc4878b771831d100d78750c272a12c8b9a55f6ada5bb9f01365d66cb0266298490aa1a600b0b3"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xdfd7aa554653ca236c197ad746edc2954ca172df",
-    "pubSec256": "0x042627fa63ebcc45718a2cad243cced286b869b2b3e5a9221826b2cc637fe4d3915f16054f2edfafd2220ac71f61404a0b5640bf6a88f93e515a166f25d954b345",
-    "pubBn256": "0x2319ad27f2c5a74fc92098983ac96a171745e2fd7c37e3d650dd0c274dd5dc98025fff4952fb755b55f820424d4a0b46c76d58ba244a258e09a5a3053f6cd37c"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x266ddcfdbe3ded75e0e511e6356bca052b221c6b",
-    "pubSec256": "0x04014be5b4ab86b0e2a6a7f9474ea29f9009741d4e6f13db592c99b21dad040e5866bf32413ca960704011dfb83835036c58c14f4685a04dd5a64972f193b4be95",
-    "pubBn256": "0x0170f50d6a62ba1e555618ea6706be0eca26b3cd959db3c92eb51921a8fbebc001f0ced85859fc6e9ee62fccd4bb9c5d107538f4edc08c000221c5a88fef8401"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x1ae5a38b4a5ca0aefbb1c17fd27073ab00fd2a3f",
-    "pubSec256": "0x046ebab258c6490fbead3b2c3abe56af0ca0ae4bcd8f389138ad2f4a71341d55d2d49683a6bc2be6040035b28edc7bc447faade49d5366c2e1bc479aa7f0a4ebd8",
-    "pubBn256": "0x04a00793ce4027828e6be164cdce7b598f4f0aec7c9b9be5b5ccea4c9a8392ca07788b6da062311a7b4bcff986a8fe46f46190ab7d082c6190d1db81c3333013"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x2866bca06ff1d6afe52298f9fc759ea9b80f6902",
-    "pubSec256": "0x04c4283d895febbdcced3ebdc62d7221c6af3b5998d7c95dc414f375bb577c8e1db78a62120f7499cba125ad5ffaf9822a4d8e4b977388b1acce40b9fce50b7131",
-    "pubBn256": "0x25c43fbb9ca10ad9f1ae3fe880510a6fdd6a78e5201d3d4ffb7ad184b756be4b270412eca0c7c134dd23281da203914cb084c159f2ddd78e84b753a9de10283e"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xf0e02c3640020f083a314547ae99483aa2c7cd01",
-    "pubSec256": "0x0479fd26f8f49d12d74eb3858e7b42693ba07612e09885f531fbb0bc490d46915020b8a3ddda29d71624f136e22e77fb0ed51747b06e5a361371040d82cd0bc0f7",
-    "pubBn256": "0x0bb27f826fcc19a535b016c8d1adac314f5e3129708085709ade11ce2f4f852815d94e32fc7ffdcd79407bb28140d7b2b069b8be6c0ae152089545a99bde481a"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x2a6e8c39d4e9f9152958649fc5dbdb9c68cfcb0b",
-    "pubSec256": "0x04acc412f93ba6733e9a922fb35db8bb38b6e44bb7196ea124998fc00ec8bb9d4a1b7131b7bdd50f28a45f821857f5c96fd8d10956c213066616940c7948fe4536",
-    "pubBn256": "0x1103e043f8a8e3388d3421d2a994c159402cff5156055509cdd576e97152c9952faa179b70107ea01175dc9dba06e2d17cec80c2f0fa146bcc4aeb7348f94f8b"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x0081a626fecff225cd87d3f23c0dd47a9fe243ac",
-    "pubSec256": "0x04704507be17637351f300916ef6ff0f370188885596eaabc6a11eb8ff0792ad46fe2d50a63b80f0e5afebd6f0a51e1a1d8348eefeb10034d46a630179bdd5f3ad",
-    "pubBn256": "0x19d61217d01d8185d587a21435b9d8c3df9b5cd84332ca59e13d59788ae905932109a75576e8966ff576a6e5a6f0d69b4a50d7a388431da01ee20670c3b98610"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x1a95e85e8ffcfd28eb61ee53a542dc98c57b337a",
-    "pubSec256": "0x04dac7b023f0e9fb5be91b48e5d546b2f2eb91029705f6055c24b3c804a49cf83f7cd584a96346ca42a94a02456444b7df4e280d2726971bf267f8182341ff81b9",
-    "pubBn256": "0x093e87d8f1cf8d967be90fc841b73180e8185e480e5b1937c5bd0bf5b47288500598f33d4142bf226b2c8ddaf7358c3093423efdeb1b0a74bfba9d5749ecdf9c"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x1a95e85e8ffcfd28eb61ee53a542dc98c57b337a",
-    "pubSec256": "0x04dac7b023f0e9fb5be91b48e5d546b2f2eb91029705f6055c24b3c804a49cf83f7cd584a96346ca42a94a02456444b7df4e280d2726971bf267f8182341ff81b9",
-    "pubBn256": "0x093e87d8f1cf8d967be90fc841b73180e8185e480e5b1937c5bd0bf5b47288500598f33d4142bf226b2c8ddaf7358c3093423efdeb1b0a74bfba9d5749ecdf9c"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x1a95e85e8ffcfd28eb61ee53a542dc98c57b337a",
-    "pubSec256": "0x04dac7b023f0e9fb5be91b48e5d546b2f2eb91029705f6055c24b3c804a49cf83f7cd584a96346ca42a94a02456444b7df4e280d2726971bf267f8182341ff81b9",
-    "pubBn256": "0x093e87d8f1cf8d967be90fc841b73180e8185e480e5b1937c5bd0bf5b47288500598f33d4142bf226b2c8ddaf7358c3093423efdeb1b0a74bfba9d5749ecdf9c"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xdfd7aa554653ca236c197ad746edc2954ca172df",
-    "pubSec256": "0x042627fa63ebcc45718a2cad243cced286b869b2b3e5a9221826b2cc637fe4d3915f16054f2edfafd2220ac71f61404a0b5640bf6a88f93e515a166f25d954b345",
-    "pubBn256": "0x2319ad27f2c5a74fc92098983ac96a171745e2fd7c37e3d650dd0c274dd5dc98025fff4952fb755b55f820424d4a0b46c76d58ba244a258e09a5a3053f6cd37c"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x2a6e8c39d4e9f9152958649fc5dbdb9c68cfcb0b",
-    "pubSec256": "0x04acc412f93ba6733e9a922fb35db8bb38b6e44bb7196ea124998fc00ec8bb9d4a1b7131b7bdd50f28a45f821857f5c96fd8d10956c213066616940c7948fe4536",
-    "pubBn256": "0x1103e043f8a8e3388d3421d2a994c159402cff5156055509cdd576e97152c9952faa179b70107ea01175dc9dba06e2d17cec80c2f0fa146bcc4aeb7348f94f8b"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xa3fb8f5e1fadfe104e4b1da91e8d96aab52faaf3",
-    "pubSec256": "0x0498634e28001b026abfcf45d4e319a87cd3325e1c4bd9398467f1b6f3c0903c528b6a84f6c3e9fd4954becc2a3ac33a124bc351605f62cdf9d856eecf9aba9088",
-    "pubBn256": "0x172c6153a8b456d19a0e70bb911aafcaa32bf463933622bd575daeddd00d3c0422015e0118b62d52b03b334e5714ca903de8f4443f755d82a9d57256cedcc4a8"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x4bf9fd7308d0849a62c3a7dd71c5190e57c28756",
-    "pubSec256": "0x04956b111a090721a839b8874803e9c40670d163e166908986163fae777999b3c5bdd0d0583d266e38b66dd10c837e1334a3905d615f3fd8aed50c870ce35930d6",
-    "pubBn256": "0x08de1794375b6c4a075fc248897ee928c8200ee1849a9d4dfc404ec5fbfe1f28135c492bb08e3bb7a29f9c94396b427819605942fb84a3b9e9dc4df9cd432767"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x85dae7e5c7b433a1682c54eee63adf63d835d272",
-    "pubSec256": "0x047c0a86a0370e15b6b8093d061d148d9bc085f4dabdbe93782837b1512f8230f542e0415eb9acc5d0dba4548b228ebabae50060b2abd89ad23cf134751f4197d3",
-    "pubBn256": "0x0eb2f79cb83af902687597c5c2979b23b0723f69ebec8b0336cf5bf6925d0ef322a1fda842559f82e4fe4300329b8d0bf47b3938b8d97ccb99e2327f5d2c938b"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x4a11bb4380412e2f84a888fe49fae84d60faea2f",
-    "pubSec256": "0x0451cffffa2fb947261efca509564768d909a4fefd450c0e00effc8d7cb848dbd08939e163a6a41bde571f4ae0056b876c2b01c18e1e2d6b7a4745b49f5f5912c0",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x4a11bb4380412e2f84a888fe49fae84d60faea2f",
-    "pubSec256": "0x0451cffffa2fb947261efca509564768d909a4fefd450c0e00effc8d7cb848dbd08939e163a6a41bde571f4ae0056b876c2b01c18e1e2d6b7a4745b49f5f5912c0",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x4a11bb4380412e2f84a888fe49fae84d60faea2f",
-    "pubSec256": "0x0451cffffa2fb947261efca509564768d909a4fefd450c0e00effc8d7cb848dbd08939e163a6a41bde571f4ae0056b876c2b01c18e1e2d6b7a4745b49f5f5912c0",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x4a11bb4380412e2f84a888fe49fae84d60faea2f",
-    "pubSec256": "0x0451cffffa2fb947261efca509564768d909a4fefd450c0e00effc8d7cb848dbd08939e163a6a41bde571f4ae0056b876c2b01c18e1e2d6b7a4745b49f5f5912c0",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x9971a8ac2074feda8de09de5c45a604b66d3a216",
-    "pubSec256": "0x0487f3ed7a7c89f94f6a4b21f3ecd551c6207186c329acf37eccb7797916ab374638ebae165518598fb7b9325a8a5258608543a05c4d7ba234bbb78b211c4a08e7",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x9971a8ac2074feda8de09de5c45a604b66d3a216",
-    "pubSec256": "0x0487f3ed7a7c89f94f6a4b21f3ecd551c6207186c329acf37eccb7797916ab374638ebae165518598fb7b9325a8a5258608543a05c4d7ba234bbb78b211c4a08e7",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x9971a8ac2074feda8de09de5c45a604b66d3a216",
-    "pubSec256": "0x0487f3ed7a7c89f94f6a4b21f3ecd551c6207186c329acf37eccb7797916ab374638ebae165518598fb7b9325a8a5258608543a05c4d7ba234bbb78b211c4a08e7",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x9971a8ac2074feda8de09de5c45a604b66d3a216",
-    "pubSec256": "0x0487f3ed7a7c89f94f6a4b21f3ecd551c6207186c329acf37eccb7797916ab374638ebae165518598fb7b9325a8a5258608543a05c4d7ba234bbb78b211c4a08e7",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x938f0c4b977cc711f863cc562acd2e8e6d2d1996",
-    "pubSec256": "0x044a7ed31c3feebb660cd0439bbf3fe02c9b446b70bbbed1516239072ddf9258436df0857fb82c5d52211410ff2f991a3cd6bd31e7dc97bcd4eb2337ef89c2018f",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x938f0c4b977cc711f863cc562acd2e8e6d2d1996",
-    "pubSec256": "0x044a7ed31c3feebb660cd0439bbf3fe02c9b446b70bbbed1516239072ddf9258436df0857fb82c5d52211410ff2f991a3cd6bd31e7dc97bcd4eb2337ef89c2018f",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x938f0c4b977cc711f863cc562acd2e8e6d2d1996",
-    "pubSec256": "0x044a7ed31c3feebb660cd0439bbf3fe02c9b446b70bbbed1516239072ddf9258436df0857fb82c5d52211410ff2f991a3cd6bd31e7dc97bcd4eb2337ef89c2018f",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x938f0c4b977cc711f863cc562acd2e8e6d2d1996",
-    "pubSec256": "0x044a7ed31c3feebb660cd0439bbf3fe02c9b446b70bbbed1516239072ddf9258436df0857fb82c5d52211410ff2f991a3cd6bd31e7dc97bcd4eb2337ef89c2018f",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x99f8497995993bd60fe92ed4f0b1745ba87dcbd8",
-    "pubSec256": "0x048f07a2bc4ade11952f2c612f7dbc82d473c2a47c7c41179cda53a1299673e61a90be6bcd661c1a7e77cff5cc0b01bc19b8b73d821b2f83103fde42d33be58776",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x99f8497995993bd60fe92ed4f0b1745ba87dcbd8",
-    "pubSec256": "0x048f07a2bc4ade11952f2c612f7dbc82d473c2a47c7c41179cda53a1299673e61a90be6bcd661c1a7e77cff5cc0b01bc19b8b73d821b2f83103fde42d33be58776",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x99f8497995993bd60fe92ed4f0b1745ba87dcbd8",
-    "pubSec256": "0x048f07a2bc4ade11952f2c612f7dbc82d473c2a47c7c41179cda53a1299673e61a90be6bcd661c1a7e77cff5cc0b01bc19b8b73d821b2f83103fde42d33be58776",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x99f8497995993bd60fe92ed4f0b1745ba87dcbd8",
-    "pubSec256": "0x048f07a2bc4ade11952f2c612f7dbc82d473c2a47c7c41179cda53a1299673e61a90be6bcd661c1a7e77cff5cc0b01bc19b8b73d821b2f83103fde42d33be58776",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x3a4d6b64fd9e1ce7d9bbae620b6a8d7d09642fdc",
-    "pubSec256": "0x0484caedf55f668c4cbd966f4aa3c0c1a064e33b1c3ab6c0bc4de7323583893e0fc2cbfe6f4fa3a53f2b57a24f0420b337bcc2f7fa9f9fc4e5e9d95b5c3874360d",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x3a4d6b64fd9e1ce7d9bbae620b6a8d7d09642fdc",
-    "pubSec256": "0x0484caedf55f668c4cbd966f4aa3c0c1a064e33b1c3ab6c0bc4de7323583893e0fc2cbfe6f4fa3a53f2b57a24f0420b337bcc2f7fa9f9fc4e5e9d95b5c3874360d",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x3a4d6b64fd9e1ce7d9bbae620b6a8d7d09642fdc",
-    "pubSec256": "0x0484caedf55f668c4cbd966f4aa3c0c1a064e33b1c3ab6c0bc4de7323583893e0fc2cbfe6f4fa3a53f2b57a24f0420b337bcc2f7fa9f9fc4e5e9d95b5c3874360d",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0x3a4d6b64fd9e1ce7d9bbae620b6a8d7d09642fdc",
-    "pubSec256": "0x0484caedf55f668c4cbd966f4aa3c0c1a064e33b1c3ab6c0bc4de7323583893e0fc2cbfe6f4fa3a53f2b57a24f0420b337bcc2f7fa9f9fc4e5e9d95b5c3874360d",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xc31c8513f9a052078bf4f4760f6634d11806f888",
-    "pubSec256": "0x046351650f15b8de869d89c572dc093000794e75e7f4a7c9f10e9b35f24694fa7555c143e4c4dd4548c0d06be2b2e6c536b37acf0c0ad4806e6c48f23ade4e4d9a",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xc31c8513f9a052078bf4f4760f6634d11806f888",
-    "pubSec256": "0x046351650f15b8de869d89c572dc093000794e75e7f4a7c9f10e9b35f24694fa7555c143e4c4dd4548c0d06be2b2e6c536b37acf0c0ad4806e6c48f23ade4e4d9a",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xc31c8513f9a052078bf4f4760f6634d11806f888",
-    "pubSec256": "0x046351650f15b8de869d89c572dc093000794e75e7f4a7c9f10e9b35f24694fa7555c143e4c4dd4548c0d06be2b2e6c536b37acf0c0ad4806e6c48f23ade4e4d9a",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xc31c8513f9a052078bf4f4760f6634d11806f888",
-    "pubSec256": "0x046351650f15b8de869d89c572dc093000794e75e7f4a7c9f10e9b35f24694fa7555c143e4c4dd4548c0d06be2b2e6c536b37acf0c0ad4806e6c48f23ade4e4d9a",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xfda3e8b8cc933e10cadabeeab38864af4d33c418",
-    "pubSec256": "0x04fdb485b566c2ddb40e2f4341b1e5746479a7c45e3d8101b1360b8bdba6206deee520ceecc9e9897e3b05b53e3ffa6fa659bef47c384984c0bc021a843df10847",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 0,
-    "secAddr": "0xfda3e8b8cc933e10cadabeeab38864af4d33c418",
-    "pubSec256": "0x04fdb485b566c2ddb40e2f4341b1e5746479a7c45e3d8101b1360b8bdba6206deee520ceecc9e9897e3b05b53e3ffa6fa659bef47c384984c0bc021a843df10847",
-    "pubBn256": "0x"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x89a7588529eb7aaea0a229f2dfbb277b15649969",
-    "pubSec256": "0x04aaca51914262ed375ac9ea9cd63586fc78c717a9872b2264f13b8d13bf7d7e617477c10371650f72940cae05af49aeed4bd897b82cb2804a187b4d476b6fef96",
-    "pubBn256": "0x29e0660fe921282b2d64c6adaf0b24945eee6d9fcdb419c39f84a551ed44151d27f786e5df7abcff94bbed2cbc2791bc76db21b5be469874be181e4fa234fb3e"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x3dabf8331afbc553a1e458e37a6c9c819c452d55",
-    "pubSec256": "0x04cd7cbcd358a83410d94f7063a6771e8c3487fccab6076faf2c80a69e001a15350644e8215239668c01e2891b4a9b1d11345ae5b37f2f2e4745849faae2651f4a",
-    "pubBn256": "0x26a70d685549ffe982df0d66a88f36ac3fca6e488bf69eb6de62a37b97f3f56e2b6b56f47e817c01225ad5549f1ca9751dc1f65559f1a81639c6a4126c9df3ce"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x010ee9abdf364972ac8d279ab96fd1d167a4d830",
-    "pubSec256": "0x045a2cb409e9cf532fa0a2da2819a2506c606ad0a68b20e38ff06550d170b80b169468d60a2c161a54eb07012b39c4a9d085f0f3692878e68844a80e2d16ab4dc9",
-    "pubBn256": "0x21f4f0c4da56206685e94354acba851aab7dc7c090898f6bbb1fc42df986764b055f09e97ceb4c90976a1219ab749dd0b008d47f9c18b962a6056e66de8d858f"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x7815f56468915a08edb505fffa9d376ad21a9617",
-    "pubSec256": "0x043737319fb97bc7abfc79e88665af8a7c847568013a9484713709ea5b55bde7e5c5dbf07c13788233d8b4591652ba2a6b3781d1f9849837e5cd6a4c549f74dbe1",
-    "pubBn256": "0x13b8de12e5dc08c978119e6f7f9759e30e8c50afa03c249939c554335897f26e05d76dbd3d00e03716f3c04699e673213757632cacbf2b9d0ec441475bb74d82"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x2c72d7a8c02752fcfafbaea5a63c53056cfaf547",
-    "pubSec256": "0x04428597d2d6ab60894c592951337243424637c8b65cc0057215f481dcb78b3e96268365c9bac17bc32b6c08e2c135ca231f636653040f995e8d4e03f6d4b8d812",
-    "pubBn256": "0x2094589617397846c5125cf5922ba993643c401998ae8817d5005fe21245f4bc0fbb25158c54446757d2b03d89da10d7dfbbaa23afa38c6e87115dcebe2a8e4d"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x9ce4664e9d7346869797b7d9fc8c7a0212d5ff44",
-    "pubSec256": "0x0463c2253728e2689177d5e1ddc5d5ffb4e1f9627bcf9aa146b0964250ae5c60be7feff12a9f8cb63d919ede3ccda9d5a1b7f5e3cc27edc7c28ed963cd8d38e01e",
-    "pubBn256": "0x22d0eba05394d684c66d2ee43cac898430601d36ecdfee08fb917b81be9c913819481778c8e4362845096c06bcecbe252cf77a0b6e858b74dcbf9e96b2f7a702"
-  },
-  {
-    "type": 1,
-    "secAddr": "0xbdada4f58d17ce602cb0d2db2a55c3e4f47e397f",
-    "pubSec256": "0x04933eb34aeec7c17e7f83244235569f33de529cbf1d2ecd42882cff988c66ae9497a7a889a8b8cd66f04cba9d4c194cfcdf0ac55b3523e661637d3927a7c95943",
-    "pubBn256": "0x1459fff3a6e7cdb3f9dad6ff0f8151b88fbc6d373b6b48526ac22b39d92c08480ea9de8a500a7fd48d901cb0451f40a08e2c0718837dd4d8222f92c5a6e0d68a"
-  },
-  {
-    "type": 1,
-    "secAddr": "0xa923ac48439add7124763b3682f4505044c81ae3",
-    "pubSec256": "0x04a289289a2c9543a026aaa6f931f932650d14bdb05f3fe81af6dde72ab952650849042eccac2f5199a1595e9ec97a5556f89834de5da53c723ce51ed5036e77f2",
-    "pubBn256": "0x1e958d885fb00a267c9ae44736c639b74fe6c9a974f755ee602f5bd4a857ca071c1b4f3b1609b6e7a796ed18eb209ed88748b41dcfaf511c1dc48c879e843568"
-  },
-  {
-    "type": 1,
-    "secAddr": "0xf1d6ffc8a2276b7e0784973a1a07a26e75200edd",
-    "pubSec256": "0x04b14de13c3f169243da6a22ffd3d0cd619ec719a48a5606de6e8008f3f8f6ffc68ae17c112c2eb11ec3628f46ecdd9e824653f7bfe42a85241f475aaa440f80e9",
-    "pubBn256": "0x221633870191422d9fa69c65e00166574349879fbc6c1f6740ce39886dfb167a10fd6cc2d98dff29785a055e3c693e88a9528c6b82a8ea4b2dd84af0c257c45e"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x5e165460b15f02d84a67f81b29517671989d2492",
-    "pubSec256": "0x04dcc3d96bd79abc92613116c6ff78a2afc71bda6984ec1bcc54a8f10b3d3f17aab5a85c18fd2a0ebca6edf5aec6c4b2e90277a810c767d150a66b5989757c9ba5",
-    "pubBn256": "0x03ce5e887f9e3dbe9f9458ca8165d6e5730241047406a09e88625c22910fd65d1d1b93fb473900d523850ce5107e511655093a5f345130589a75b92300cd8d65"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x8289e2141c10832e7c9b108317eae0dec2011c67",
-    "pubSec256": "0x0474a3286cd9a093913cb38de1f635ee8cf2b1eb4272ce158b153bbf23650db62bf3fa7b66631e4dc7eccfad6dbb9bdb0966fa4d4b42e77d8bc2eaccda82a1ff35",
-    "pubBn256": "0x1b4d6bc8ecad86c7b55320372bc042396f327d030b0a0a13c525cf2a8406d2d5223917bbd0013135aabaa7a6aa114ec8538dc34f6c74b5e486227579cdd26d17"
-  },
-  {
-    "type": 1,
-    "secAddr": "0xb019a99f0653973ddb2d983a26e0970587d08447",
-    "pubSec256": "0x04d924a8e424bed32d9f9e54435195a1151aebbdb14102d227537c3c821a7fe37231d42662f2dad545c058ff75ab70b550d11e1c8837b908a0c8de57c8cd5259e6",
-    "pubBn256": "0x1dbf90cec093cd99c83e22ca3e6929bae4e1743d03b7921a68c5f217691ca7552511dad1331ddeee3d695e902d5f63eb65b1a9f791627910315d167b570a92ba"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x8289e2141c10832e7c9b108317eae0dec2011c67",
-    "pubSec256": "0x0474a3286cd9a093913cb38de1f635ee8cf2b1eb4272ce158b153bbf23650db62bf3fa7b66631e4dc7eccfad6dbb9bdb0966fa4d4b42e77d8bc2eaccda82a1ff35",
-    "pubBn256": "0x1b4d6bc8ecad86c7b55320372bc042396f327d030b0a0a13c525cf2a8406d2d5223917bbd0013135aabaa7a6aa114ec8538dc34f6c74b5e486227579cdd26d17"
-  },
-  {
-    "type": 1,
-    "secAddr": "0xa4ebf5bbb131179b69bbf33319257728cdada5cf",
-    "pubSec256": "0x045c130412df256096b7f28656025b610753616a57d670f942da68d2833f8562ef65836a9e58e0c3b34000254018f965030fb5b6d7e09399ce5ad0e965e4e96be9",
-    "pubBn256": "0x1f3bdbb57e4ae106a1e41704a0c3c1e46acefcb74c9ed94ad751833ac1f904af267c78b4d7c5f06a175d0f79575d7b75040b9c2934bac2f95238e1ae59d0c5e5"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x3dabf8331afbc553a1e458e37a6c9c819c452d55",
-    "pubSec256": "0x04cd7cbcd358a83410d94f7063a6771e8c3487fccab6076faf2c80a69e001a15350644e8215239668c01e2891b4a9b1d11345ae5b37f2f2e4745849faae2651f4a",
-    "pubBn256": "0x26a70d685549ffe982df0d66a88f36ac3fca6e488bf69eb6de62a37b97f3f56e2b6b56f47e817c01225ad5549f1ca9751dc1f65559f1a81639c6a4126c9df3ce"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x5e165460b15f02d84a67f81b29517671989d2492",
-    "pubSec256": "0x04dcc3d96bd79abc92613116c6ff78a2afc71bda6984ec1bcc54a8f10b3d3f17aab5a85c18fd2a0ebca6edf5aec6c4b2e90277a810c767d150a66b5989757c9ba5",
-    "pubBn256": "0x03ce5e887f9e3dbe9f9458ca8165d6e5730241047406a09e88625c22910fd65d1d1b93fb473900d523850ce5107e511655093a5f345130589a75b92300cd8d65"
-  },
-  {
-    "type": 1,
-    "secAddr": "0xa4539e1bdffceb3557ffb81f87a92e2159f6d637",
-    "pubSec256": "0x04d4de4b2d39a5109897fad863243ad73377dfa0bc1840690a46d03dfebd256d64522811772df6cc0942fb57d1abcced8c2b86d7b98d49a3e494560ce380f5ef95",
-    "pubBn256": "0x2914b072375b35fcdddc7120cb35327f2fc582adf79474c9a467263d3dab82c70b337eaf59a7ef201f1f404d01bd26bcff9db027bbdd85bab0f43aea4aa53d2e"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x7815f56468915a08edb505fffa9d376ad21a9617",
-    "pubSec256": "0x043737319fb97bc7abfc79e88665af8a7c847568013a9484713709ea5b55bde7e5c5dbf07c13788233d8b4591652ba2a6b3781d1f9849837e5cd6a4c549f74dbe1",
-    "pubBn256": "0x13b8de12e5dc08c978119e6f7f9759e30e8c50afa03c249939c554335897f26e05d76dbd3d00e03716f3c04699e673213757632cacbf2b9d0ec441475bb74d82"
-  },
-  {
-    "type": 1,
-    "secAddr": "0xa4626e2bb450204c4b34bcc7525e585e8f678c0d",
-    "pubSec256": "0x04b7bf8d3868333f70a30041423c7db204b80b9be2e585c344cf3f391cbf77b17fd14f3058d4475d546355bf8c2709ed9ecf5f0cee9d021c90988af0e8cf52001b",
-    "pubBn256": "0x289787688eb80c1e223375a71f8d17110d638a9143afa190dc11b3c1e64cf92b21feb02ab7a1dcb31892210dfda458aff890fe9e7508292099ae6256f197b325"
-  },
-  {
-    "type": 1,
-    "secAddr": "0xf90cc528e5f4811c8c1f1a69b990b9a58039f7cf",
-    "pubSec256": "0x04cf5c7fb96aabc8d47bd9b2394de2dc999f6d13e6310bf187f4de524e8a4ffc73d752fb5f742327504761eb9f5809edc0086448f4370e64e8c9359c6d2642626b",
-    "pubBn256": "0x137aad9a6545d62da6872de7474fe592549ee55cfee4905b5fbb1ea6fd44e34119159220d51c0f33e0884b8b5b3bf29df1e4f16aeb7ad2b0fa638d7ff388fe97"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x1a95e85e8ffcfd28eb61ee53a542dc98c57b337a",
-    "pubSec256": "0x04dac7b023f0e9fb5be91b48e5d546b2f2eb91029705f6055c24b3c804a49cf83f7cd584a96346ca42a94a02456444b7df4e280d2726971bf267f8182341ff81b9",
-    "pubBn256": "0x093e87d8f1cf8d967be90fc841b73180e8185e480e5b1937c5bd0bf5b47288500598f33d4142bf226b2c8ddaf7358c3093423efdeb1b0a74bfba9d5749ecdf9c"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x46530055144fe9365eaae87ba623e2f91cd7eff2",
-    "pubSec256": "0x042b7d4be32d25769472ea7c8d432bbad5abee051c048e4de425e6feb288fde6f33a16269e4e85fbda4f857a7d5eca8d33793b9249c83517a3214b64475cd50176",
-    "pubBn256": "0x2a55a4fb7c648d2dbfd09c93d087011813c34188cd6cc880a6a69bea935e08982dc804dc1561ee508745e555295599a7b27f0e897ef2b511e1ebd26c8ca40fa2"
-  },
-  {
-    "type": 1,
-    "secAddr": "0x93c8ea0326ef334bdc3011e74cd1a6d78ce0594d",
-    "pubSec256": "0x043f31ca015355e7ef75e278b561618d2fbec8e2a291967669008ebdb932a102286448448570f2736a49ea3f16c83258ddabb8664370b55199b23206f45c56be41",
-    "pubBn256": "0x1c96a7abf1424d0c5316fc74eb39022648062fc88997896bdeae70c4e008b3700136608e2ab653c037d144979403061d3247d6298bfdf0b26c9829db3175531e"
-  },
-  {
     "type": 1,
     "secAddr": "0x57dca45124e253bfa93d7571b43555a861c7455f",
     "pubSec256": "0x047aa28ac3bf36c51e7781984e2843bdb78bf7d78e3e3f2fe5522581e8f94725749d81b6f2dd3068a02f95b9dddb5e3a97f9c6e22edf5a78e25339c3c94aeb31f1",
@@ -7105,6 +6480,33 @@
   }
 }
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "result":[{
+    "address": "0xa4626e2bb450204c4b34bcc7525e585e8f678c0d",
+    "amount": "5e+22",
+    "clients": [{
+        "address": "0xfcc3736dc29bf9af7556fcc1dea10b53edaab51d",
+        "amount": 100000000000000000000,
+        "quitEpoch": 18071,
+        "votingPower": 1.002e+23
+    }],
+    "feeRate": 1500,
+    "feeRateChangedEpoch": 0,
+    "from": "0xdbb2d6199457d11288f0097659bcec24738e158f",
+    "lockEpochs": 7,
+    "maxFeeRate": 1500,
+    "nextLockEpochs": 7,
+    "partners": [],
+    "pubBn256": "0x289787688eb80c1e223375a71f8d17110d638a9143afa190dc11b3c1e64cf92b21feb02ab7a1dcb31892210dfda458aff890fe9e7508292099ae6256f197b325",
+    "pubSec256": "0x04b7bf8d3868333f70a30041423c7db204b80b9be2e585c344cf3f391cbf77b17fd14f3058d4475d546355bf8c2709ed9ecf5f0cee9d021c90988af0e8cf52001b",
+    "stakingEpoch": 0,
+    "votingPower": "5.01e+25"
+}]
+}</t>
   </si>
   <si>
     <t xml:space="preserve">TC5025</t>
@@ -7552,7 +6954,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7575,28 +6976,24 @@
       <color rgb="FF604A7B"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF604A7B"/>
       <name val="宋体"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF604A7B"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -7934,11 +7331,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7989,25 +7386,25 @@
   <dimension ref="A1:O65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G162" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A190" activeCellId="0" sqref="A190"/>
-      <selection pane="bottomRight" activeCell="F192" activeCellId="0" sqref="F192"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
+      <selection pane="bottomRight" activeCell="G163" activeCellId="0" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.582995951417"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="110.546558704453"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13066,7 +12463,7 @@
         <v>700</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>614</v>
+        <v>701</v>
       </c>
       <c r="H181" s="5"/>
       <c r="I181" s="7" t="s">
@@ -13076,7 +12473,7 @@
     </row>
     <row r="182" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>72</v>
@@ -13085,16 +12482,16 @@
         <v>698</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>614</v>
+        <v>701</v>
       </c>
       <c r="H182" s="5"/>
       <c r="I182" s="7" t="s">
@@ -13104,25 +12501,25 @@
     </row>
     <row r="183" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="7" t="s">
@@ -13132,25 +12529,25 @@
     </row>
     <row r="184" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H184" s="5"/>
       <c r="I184" s="7" t="s">
@@ -13160,25 +12557,25 @@
     </row>
     <row r="185" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H185" s="5"/>
       <c r="I185" s="7" t="s">
@@ -13188,25 +12585,25 @@
     </row>
     <row r="186" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H186" s="5"/>
       <c r="I186" s="7" t="s">
@@ -13216,25 +12613,25 @@
     </row>
     <row r="187" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H187" s="5"/>
       <c r="I187" s="7" t="s">
@@ -13244,25 +12641,25 @@
     </row>
     <row r="188" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H188" s="5"/>
       <c r="I188" s="7" t="s">
@@ -13272,25 +12669,25 @@
     </row>
     <row r="189" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="7" t="s">
@@ -13300,25 +12697,25 @@
     </row>
     <row r="190" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H190" s="5"/>
       <c r="I190" s="7" t="s">
@@ -13328,13 +12725,13 @@
     </row>
     <row r="191" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>586</v>
@@ -13343,10 +12740,10 @@
         <v>18</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H191" s="5"/>
       <c r="I191" s="7" t="s">
@@ -13356,13 +12753,13 @@
     </row>
     <row r="192" customFormat="false" ht="147" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>586</v>
@@ -13371,10 +12768,10 @@
         <v>54</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H192" s="5"/>
       <c r="I192" s="7" t="s">
@@ -13416,16 +12813,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.473684210526"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="110.441295546559"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13452,7 +12849,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>13</v>
@@ -13474,14 +12871,14 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -13498,14 +12895,14 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -13524,14 +12921,14 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -13546,14 +12943,14 @@
         <v>156</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -13567,21 +12964,21 @@
         <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -13596,14 +12993,14 @@
         <v>156</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -13617,17 +13014,17 @@
         <v>306</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">

--- a/test/testcase/Wanchain RPC API Testcase.xlsx
+++ b/test/testcase/Wanchain RPC API Testcase.xlsx
@@ -215,16 +215,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "result":{
-    "symbol": "WCT",
-    "decimals": "18"
-  }
-}</t>
-  </si>
-  <si>
     <t>TC0007</t>
   </si>
   <si>
@@ -241,24 +231,6 @@
   "params": {
     "chainType":"ETH",
     "tokenScAddrArray":["0xc5bc855056d99ef4bda0a4ae937065315e2ae11a","0x7017500899433272b4088afe34c04d742d0ce7df" ]
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "result": {
-    "0xc5bc855056d99ef4bda0a4ae937065315e2ae11a":
-    {
-       "symbol": "WCT",
-       "decimals": "18"
-    },
-    "0x7017500899433272b4088afe34c04d742d0ce7df":
-    {
-       "symbol": "WCT_One",
-       "decimals": "18"
-    }
   }
 }</t>
   </si>
@@ -285,13 +257,6 @@
     "ownerAddr":"0xc27ecd85faa4ae80bf5e28daf91b605db7be1ba8",
     "spenderAddr":"0xcdc96fea7e2a6ce584df5dc22d9211e53a5b18b1"
   }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "result": "999999999999980000000000000"
 }</t>
   </si>
   <si>
@@ -738,16 +703,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "error": {
-    "0xfac95c16da814d24cc64b3186348afecf527324f": "0",
-    "fac95c16da814d24cc64b3186348afecf527324e": "invalid address"
-  }
-}</t>
-  </si>
-  <si>
     <t>One error address without 0x</t>
   </si>
   <si>
@@ -785,16 +740,6 @@
   "params": {
     "address": ["0xfac95c16da814d24cc64b3186348afecf527324f","0xfac95c16da814d24cc64b3186348afecf52732"],
     "tokenScAddr":"0x63eed4943abaac5f43f657d8eec098ca6d6a546e"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "error": {
-    "0xfac95c16da814d24cc64b3186348afecf527324f": "0",
-    "0xfac95c16da814d24cc64b3186348afecf52732": "invalid address"
   }
 }</t>
   </si>
@@ -913,17 +858,6 @@
   <si>
     <t>{
   "jsonrpc": "2.0",
-"id": "user defined field",
-  "method": "sendRawTransaction",
-  "params": {
-    "chainType":"WAN",
- "signedTx":"0xf86e0109852e5fa62ebca48493da572661880de0b6b3a7640000801ca0bd349ec9f51dd171eb5c59df9a6b8c5656eacb6793bed945a7ec69135f191abfa0359da11e8a4fdd51b52a8752ac32f9125d168441546d011406736bce67b8a356"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
   "id": "user defined field",
   "error": "rlp: value size exceeds available input length"
 }</t>
@@ -935,18 +869,6 @@
     <t>TC1022</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-  "jsonrpc": "2.0",
-"id": "user defined field",
-  "method": "sendRawTransaction",
-  "params": {
-    "chainType":"WAN",
- "signedTx":"0xf86e0109852e90edd000832dc6c0946ed9sc11cbd8a6ae8355fa62ebca48493da572661880de0b6b3a7640000801ca0bd349ec9f51dd171eb5c59df9a6b8c5656eacb6793bed945a7ec69135f191abfa0359da11e8a4fdd51b52a8752ac32f9125d168441546d011406736bce67b8a356"
-  }
-}
-</t>
-  </si>
-  <si>
     <t>{
   "jsonrpc": "2.0",
   "id": "user defined field",
@@ -960,18 +882,6 @@
     <t>TC1023</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-  "jsonrpc": "2.0",
-"id": "user defined field",
-  "method": "sendRawTransaction",
-  "params": {
-    "chainType":"WAN",
- "signedTx":"0xf86e0109852e90edd000832dc6c0946ed9sc11cbd8a6sae8355fa62ebca48493da572661880de0b6b3a7640000801ca0bd349ec9f51dd171eb5c59df9a6b8c5656eacb6793bed945a7ec69135f191abfa0359da11e8a4fdd51b52a8752ac32f9125d168441546d011406736bce67b8a356"
-  }
-}
-</t>
-  </si>
-  <si>
     <t>{
   "jsonrpc": "2.0",
   "id": "user defined field",
@@ -991,41 +901,6 @@
     <t>Get the transaction detail</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "method": "getTxInfo",
-  "params": {
-    "chainType":"WAN",
-    "txHash":"0x8acc62f25246b7a8674d5d41def11fdf912eb8ab9c2ec9d7e6bf5e01d1859f63"
-  }
-}
-</t>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "result": {
-    "blockNumber": 2016652,
-    "gas": 4000000,
-    "nonce": 912,
-    "transactionIndex": 0,
-    "txType": "0x1",
-    "blockHash": "0x347ea04a29b8e0b368196c90a65b481cbbfa4e0c2d8ecacbf1d8cd85d469724d",
-    "from": "0xcf04f32c7e42f7f8531d27bf9448d0a957a66972",
-    "gasPrice": "225000000000",
-    "hash": "0x8acc62f25246b7a8674d5d41def11fdf912eb8ab9c2ec9d7e6bf5e01d1859f63",
-    "input": "0xf340fa01000000000000000000000000cf04f32c7e42f7f8531d27bf9448d0a957a66972",
-    "to": "0x9e8f2cae092ef2e991cf101329cba5148a81dce9",
-    "value": "2000000000000000000",
-    "v": "0x2a",
-    "r": "0xa760860f132307aa50d8c8e530a4a3886de0aa3b4813a3a2856c5b9aad1fae79",
-    "s": "0x3a26e9000a17fbcbe184e0be0d5caf7678841bf37836cf3114449047f96ccf38"
-  }
-}</t>
-  </si>
-  <si>
     <t>TC1025</t>
   </si>
   <si>
@@ -1033,17 +908,6 @@
   </si>
   <si>
     <t>Return information about a block by block number</t>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-"id": "user defined field",
-  "method": "getBlockByNumber",
-  "params": {
-    "chainType":"WAN",
-   "blockNumber":"2016851"
-  }
-}</t>
   </si>
   <si>
     <t>{
@@ -2889,16 +2753,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "error": {
-    "0x2cc79fa3b80c5b9b02051facd0247":"invalid address",
-    "0x2cc79fa3b80c5b9b02051facd02478ea88a78e2c":"0"
-  }
-}</t>
-  </si>
-  <si>
     <t>TC2004</t>
   </si>
   <si>
@@ -3222,33 +3076,11 @@
     <t>{
   "jsonrpc": "2.0",
   "id": "user defined field",
-  "method": "getScEvent",
-  "params":  {
-    "chainType":"ETH",
-    "address": "0xc99dd674d4821f9d7e2471547e769cc62878ff13",
-    "topics": [ "0xcc48f73333597801a1bda70f5cf2d78c250a881d98369fde1c8b4792f819c218", "0x00000000000000000000000049bd323ddd6fa686bd0a9acb2b8bf051e6534df2", "0x000000000000000000000000ee47841cdab07f21d8d587baa1d477405cc86213", "0x2e9e850405aaee745ca158e3f53dd4822d0cf24e2cb8cfb7e5f8ed24f3c52ae2" ]
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
   "result": [{"address":"0xc99dd674d4821f9d7e2471547e769cc62878ff13","topics":["0xcc48f73333597801a1bda70f5cf2d78c250a881d98369fde1c8b4792f819c218","0x00000000000000000000000049bd323ddd6fa686bd0a9acb2b8bf051e6534df2","0x000000000000000000000000ee47841cdab07f21d8d587baa1d477405cc86213","0x2e9e850405aaee745ca158e3f53dd4822d0cf24e2cb8cfb7e5f8ed24f3c52ae2"],"data":"0x00000000000000000000000000000000000000000000000000005af3107a400000000000000000000000000049bd323ddd6fa686bd0a9acb2b8bf051e6534df2","blockNumber":2322299,"transactionHash":"0x1b2bfa31c703678f43d4667a1267694feee7abb3739086f62f2dc8cb86785939","transactionIndex":1,"blockHash":"0x4096380ee6924e33af8281823401e122aa14f156b38efa7bc6b56c8e670363fe","logIndex":0,"removed":false}]
 }</t>
   </si>
   <si>
     <t>TC2024</t>
-  </si>
-  <si>
-    <t>{
-  "jsonrpc": "2.0",
-  "id": "user defined field",
-  "method": "getGasPrice",
-  "params": {
-    "chainType":"ETH"
-  }
-}</t>
   </si>
   <si>
     <t>{
@@ -8625,10 +8457,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>TC6010</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Retrieve the storeman delegator info by one delegator address</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8644,10 +8472,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>TC6011</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Retrieve the storeman delegator info by the mix of one wkAddress and one delegator address</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8668,15 +8492,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>TC6014</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Retrieve the storeman delegator info by the mix of multi wkAddress and multi delegator address</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC6015</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -9503,10 +9319,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>TC6000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>TC6024</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -9571,6 +9383,208 @@
   }
 ]
 }</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "result": "999999999999980000000000000"
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "result":{
+    "symbol": "WCT",
+    "name":"WanChain2.x Test Token",
+    "decimals": "18"
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "result": {
+    "0xc5bc855056d99ef4bda0a4ae937065315e2ae11a":
+    {
+       "symbol": "WCT",
+       "name":"WanChain2.x Test Token",
+       "decimals": "18"
+    },
+    "0x7017500899433272b4088afe34c04d742d0ce7df":
+    {
+       "symbol": "WCT_One",
+       "name":"WanChain2.x Test Token One",
+       "decimals": "18"
+    }
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "error": {
+    "fac95c16da814d24cc64b3186348afecf527324e": "invalid address"
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "error": {
+    "0xfac95c16da814d24cc64b3186348afecf52732": "invalid address"
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+"id": "user defined field",
+  "method": "sendRawTransaction",
+  "params": {
+    "chainType":"ETH",
+ "signedTx":"0xf86e0109852e5fa62ebca48493da572661880de0b6b3a7640000801ca0bd349ec9f51dd171eb5c59df9a6b8c5656eacb6793bed945a7ec69135f191abfa0359da11e8a4fdd51b52a8752ac32f9125d168441546d011406736bce67b8a356"
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "jsonrpc": "2.0",
+"id": "user defined field",
+  "method": "sendRawTransaction",
+  "params": {
+    "chainType":"ETH",
+ "signedTx":"0xf86e0109852e90edd000832dc6c0946ed9sc11cbd8a6ae8355fa62ebca48493da572661880de0b6b3a7640000801ca0bd349ec9f51dd171eb5c59df9a6b8c5656eacb6793bed945a7ec69135f191abfa0359da11e8a4fdd51b52a8752ac32f9125d168441546d011406736bce67b8a356"
+  }
+}
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "jsonrpc": "2.0",
+"id": "user defined field",
+  "method": "sendRawTransaction",
+  "params": {
+    "chainType":"ETH",
+ "signedTx":"0xf86e0109852e90edd000832dc6c0946ed9sc11cbd8a6sae8355fa62ebca48493da572661880de0b6b3a7640000801ca0bd349ec9f51dd171eb5c59df9a6b8c5656eacb6793bed945a7ec69135f191abfa0359da11e8a4fdd51b52a8752ac32f9125d168441546d011406736bce67b8a356"
+  }
+}
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "result": {
+    "blockNumber": 2016652,
+    "gas": 4000000,
+    "nonce": 912,
+    "transactionIndex": 0,
+    "txType": "0x1",
+    "blockHash": "0x347ea04a29b8e0b368196c90a65b481cbbfa4e0c2d8ecacbf1d8cd85d469724d",
+    "from": "0xcf04f32c7e42f7f8531d27bf9448d0a957a66972",
+    "gasPrice": "225000000000",
+    "hash": "0x8acc62f25246b7a8674d5d41def11fdf912eb8ab9c2ec9d7e6bf5e01d1859f63",
+    "input": "0xf340fa01000000000000000000000000cf04f32c7e42f7f8531d27bf9448d0a957a66972",
+    "to": "0x9e8f2cae092ef2e991cf101329cba5148a81dce9",
+    "value": "2000000000000000000",
+    "v": "0x2a",
+    "r": "0xa760860f132307aa50d8c8e530a4a3886de0aa3b4813a3a2856c5b9aad1fae79",
+    "s": "0x3a26e9000a17fbcbe184e0be0d5caf7678841bf37836cf3114449047f96ccf38"
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getGasPrice",
+  "params": {
+    "chainType":"ETH"
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getTxInfo",
+  "params": {
+    "chainType":"WAN",
+    "txHash":"0x8acc62f25246b7a8674d5d41def11fdf912eb8ab9c2ec9d7e6bf5e01d1859f63"
+  }
+}
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+"id": "user defined field",
+  "method": "getBlockByNumber",
+  "params": {
+    "chainType":"WAN",
+   "blockNumber":"2016851"
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "error": {
+    "0x2cc79fa3b80c5b9b02051facd0247":"invalid address"
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "jsonrpc": "2.0",
+  "id": "user defined field",
+  "method": "getScEvent",
+  "params":  {
+    "chainType":"ETH",
+    "address": "0xc99dd674d4821f9d7e2471547e769cc62878ff13",
+    "topics": [ "0xcc48f73333597801a1bda70f5cf2d78c250a881d98369fde1c8b4792f819c218", "0x00000000000000000000000049bd323ddd6fa686bd0a9acb2b8bf051e6534df2", "0x000000000000000000000000ee47841cdab07f21d8d587baa1d477405cc86213", "0x2e9e850405aaee745ca158e3f53dd4822d0cf24e2cb8cfb7e5f8ed24f3c52ae2" ]
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC6010</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC6011</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC6014</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC6015</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC6033</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -10350,10 +10364,10 @@
   <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
-      <selection pane="bottomRight" activeCell="F223" sqref="F223"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -10448,7 +10462,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>23</v>
@@ -10566,7 +10580,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>44</v>
+        <v>1032</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -10574,25 +10588,25 @@
     </row>
     <row r="8" spans="1:15" ht="75.45" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>1033</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10600,25 +10614,25 @@
     </row>
     <row r="9" spans="1:15" ht="75.45" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>55</v>
+        <v>1031</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -10626,25 +10640,25 @@
     </row>
     <row r="10" spans="1:15" ht="75.45" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -10652,25 +10666,25 @@
     </row>
     <row r="11" spans="1:15" ht="75.45" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -10678,25 +10692,25 @@
     </row>
     <row r="12" spans="1:15" ht="75.45" hidden="1" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -10704,1494 +10718,1494 @@
     </row>
     <row r="13" spans="1:15" ht="75.45" customHeight="1">
       <c r="A13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="G13" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:15" ht="230.4">
       <c r="A14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="129.6">
       <c r="A15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="G15" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:15" ht="129.6">
       <c r="A16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="G16" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="158.4">
       <c r="A17" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="129.6">
       <c r="A18" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="172.8">
       <c r="A19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="G19" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="158.4">
       <c r="A20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="G20" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="158.4">
       <c r="A21" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="144">
       <c r="A22" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="144">
       <c r="A23" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="172.8">
       <c r="A24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="G24" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="172.8">
       <c r="A25" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="172.8">
       <c r="A26" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>128</v>
+        <v>1034</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="158.4">
       <c r="A27" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="172.8">
       <c r="A28" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>136</v>
+        <v>1035</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="158.4">
       <c r="A29" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="158.4">
       <c r="A30" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" ht="129.6">
       <c r="A31" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="201.6">
       <c r="A32" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="187.2">
       <c r="A33" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>159</v>
+        <v>1036</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="216">
       <c r="A34" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>163</v>
+        <v>1037</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="216">
       <c r="A35" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>167</v>
+        <v>1038</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="100.2" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>173</v>
+        <v>1041</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>174</v>
+        <v>1039</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="147" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>178</v>
+        <v>1042</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="147" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" ht="147" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="147" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" ht="127.2" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="172.8">
       <c r="A42" s="13" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="245.55" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" ht="172.8">
       <c r="A44" s="13" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10" ht="83.55" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="201.6">
       <c r="A46" s="13" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="302.39999999999998">
       <c r="A47" s="13" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="302.39999999999998">
       <c r="A48" s="13" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" ht="409.6">
       <c r="A49" s="13" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" ht="409.6">
       <c r="A50" s="13" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" ht="127.95" customHeight="1">
       <c r="A51" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="75.45" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="75.45" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="75.45" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="75.45" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="75.45" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" ht="75.45" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="75.45" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="75.45" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="75.45" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" ht="75.45" customHeight="1">
       <c r="A61" s="13" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" ht="75.45" customHeight="1">
       <c r="A62" s="13" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" ht="75.45" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" ht="75.45" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" ht="75.45" customHeight="1">
       <c r="A65" s="13" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="75.45" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>35</v>
@@ -12200,97 +12214,97 @@
         <v>36</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" ht="75.45" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="1:10" ht="75.45" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="J68" s="12"/>
     </row>
     <row r="69" spans="1:10" ht="75.45" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -12298,25 +12312,25 @@
     </row>
     <row r="70" spans="1:10" ht="75.45" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -12324,654 +12338,654 @@
     </row>
     <row r="71" spans="1:10" ht="144">
       <c r="A71" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="158.4">
       <c r="A72" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="158.4">
       <c r="A73" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>312</v>
+        <v>1043</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="144">
       <c r="A74" s="4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="144">
       <c r="A75" s="4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="144">
       <c r="A76" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77" spans="1:10" ht="201.6">
       <c r="A77" s="4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="216">
       <c r="A78" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="125.55" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="125.55" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="129.6">
       <c r="A81" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="J81" s="12"/>
     </row>
     <row r="82" spans="1:10" ht="158.4">
       <c r="A82" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="J82" s="12"/>
     </row>
     <row r="83" spans="1:10" ht="97.2" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:10" ht="172.8">
       <c r="A84" s="4" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="132" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J85" s="6"/>
     </row>
     <row r="86" spans="1:10" ht="158.4">
       <c r="A86" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="144">
       <c r="A87" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J87" s="12"/>
     </row>
     <row r="88" spans="1:10" ht="172.8">
       <c r="A88" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J88" s="12"/>
     </row>
     <row r="89" spans="1:10" ht="144">
       <c r="A89" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J89" s="12"/>
     </row>
     <row r="90" spans="1:10" ht="288">
       <c r="A90" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="115.2">
       <c r="A91" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="1:10" ht="104.55" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="90.45" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>360</v>
+        <v>1044</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" ht="75.45" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>35</v>
@@ -12980,489 +12994,489 @@
         <v>36</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>363</v>
+        <v>1040</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" ht="75.45" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" ht="75.45" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="J96" s="12"/>
     </row>
     <row r="97" spans="1:15" ht="75.45" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:15" ht="75.45" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:15" ht="75.45" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:15" ht="75.45" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:15" ht="75.45" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:15" ht="75.45" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:15" ht="75.45" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:15" ht="75.45" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:15" ht="75.45" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:15" ht="75.45" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:15" ht="75.45" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:15" ht="75.45" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:15" ht="75.45" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:15" ht="75.45" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:15" ht="75.45" customHeight="1">
       <c r="A111" s="27" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
@@ -13475,1481 +13489,1481 @@
     </row>
     <row r="112" spans="1:15" ht="112.95" customHeight="1">
       <c r="A112" s="15" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H112" s="15"/>
       <c r="I112" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J112" s="15"/>
     </row>
     <row r="113" spans="1:10" ht="75.45" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" ht="75.45" customHeight="1">
       <c r="A114" s="15" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J114" s="15"/>
     </row>
     <row r="115" spans="1:10" ht="111" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E115" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" ht="142.94999999999999" customHeight="1">
       <c r="A116" s="15" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="E116" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J116" s="15"/>
     </row>
     <row r="117" spans="1:10" ht="144" hidden="1">
       <c r="A117" s="4" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10" ht="115.2">
       <c r="A118" s="15" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E118" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J118" s="15"/>
     </row>
     <row r="119" spans="1:10" ht="151.05000000000001" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J119" s="4"/>
     </row>
     <row r="120" spans="1:10" ht="151.05000000000001" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="E120" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" ht="144" hidden="1">
       <c r="A121" s="13" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" ht="144" hidden="1">
       <c r="A122" s="13" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" ht="158.4" hidden="1">
       <c r="A123" s="13" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J123" s="4"/>
     </row>
     <row r="124" spans="1:10" ht="158.4" hidden="1">
       <c r="A124" s="13" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J124" s="4"/>
     </row>
     <row r="125" spans="1:10" ht="230.4" hidden="1">
       <c r="A125" s="13" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:10" ht="129.6" hidden="1">
       <c r="A126" s="13" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:10" ht="129.6" hidden="1">
       <c r="A127" s="13" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="G127" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J127" s="4"/>
     </row>
     <row r="128" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A129" s="13" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A130" s="13" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J130" s="6"/>
     </row>
     <row r="131" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A131" s="13" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A132" s="13" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="H132" s="4"/>
       <c r="I132" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J132" s="6"/>
     </row>
     <row r="133" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A133" s="13" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J133" s="6"/>
     </row>
     <row r="134" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A134" s="13" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J134" s="6"/>
     </row>
     <row r="135" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A135" s="13" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J135" s="6"/>
     </row>
     <row r="136" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A136" s="13" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J136" s="6"/>
     </row>
     <row r="137" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A137" s="13" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J137" s="6"/>
     </row>
     <row r="138" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A138" s="13" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J138" s="6"/>
     </row>
     <row r="139" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A139" s="13" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J139" s="6"/>
     </row>
     <row r="140" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A140" s="13" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J140" s="6"/>
     </row>
     <row r="141" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A141" s="13" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J141" s="6"/>
     </row>
     <row r="142" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A142" s="13" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J142" s="6"/>
     </row>
     <row r="143" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A143" s="13" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J143" s="6"/>
     </row>
     <row r="144" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A144" s="13" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="H144" s="4"/>
       <c r="I144" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J144" s="6"/>
     </row>
     <row r="145" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A145" s="13" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J145" s="6"/>
     </row>
     <row r="146" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A146" s="13" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J146" s="6"/>
     </row>
     <row r="147" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A147" s="13" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="H147" s="4"/>
       <c r="I147" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J147" s="6"/>
     </row>
     <row r="148" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A148" s="13" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J148" s="6"/>
     </row>
     <row r="149" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A149" s="13" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J149" s="6"/>
     </row>
     <row r="150" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A150" s="13" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H150" s="4"/>
       <c r="I150" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J150" s="6"/>
     </row>
     <row r="151" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A151" s="13" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J151" s="6"/>
     </row>
     <row r="152" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A152" s="13" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J152" s="6"/>
     </row>
     <row r="153" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A153" s="13" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J153" s="6"/>
     </row>
     <row r="154" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A154" s="13" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F154" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>555</v>
-      </c>
       <c r="G154" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J154" s="6"/>
     </row>
     <row r="155" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A155" s="13" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J155" s="6"/>
     </row>
     <row r="156" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A156" s="13" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J156" s="6"/>
     </row>
     <row r="157" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A157" s="13" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J157" s="6"/>
     </row>
     <row r="158" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A158" s="13" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C158" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H158" s="4"/>
       <c r="I158" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J158" s="6"/>
     </row>
     <row r="159" spans="1:10" ht="147" hidden="1" customHeight="1">
       <c r="A159" s="13" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="H159" s="4"/>
       <c r="I159" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J159" s="6"/>
     </row>
     <row r="160" spans="1:10" ht="147" customHeight="1">
       <c r="A160" s="24" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="H160" s="4"/>
       <c r="I160" s="23" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="J160" s="6"/>
     </row>
     <row r="161" spans="1:10" ht="147" customHeight="1">
       <c r="A161" s="24" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="H161" s="4"/>
       <c r="I161" s="23" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="J161" s="6"/>
     </row>
     <row r="162" spans="1:10" ht="147" customHeight="1">
       <c r="A162" s="24" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="B162" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F162" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="C162" s="22" t="s">
-        <v>782</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>783</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>784</v>
-      </c>
       <c r="G162" s="7" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="H162" s="4"/>
       <c r="I162" s="23" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="J162" s="6"/>
     </row>
     <row r="163" spans="1:10" s="25" customFormat="1" ht="147" customHeight="1">
       <c r="A163" s="24" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="H163" s="4"/>
       <c r="I163" s="23" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="J163" s="6"/>
     </row>
     <row r="164" spans="1:10" ht="147" customHeight="1">
       <c r="A164" s="24" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="H164" s="4"/>
       <c r="I164" s="23"/>
@@ -14957,25 +14971,25 @@
     </row>
     <row r="165" spans="1:10" ht="147" customHeight="1">
       <c r="A165" s="24" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="H165" s="4"/>
       <c r="I165" s="23"/>
@@ -14983,25 +14997,25 @@
     </row>
     <row r="166" spans="1:10" ht="147" customHeight="1">
       <c r="A166" s="24" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="H166" s="4"/>
       <c r="I166" s="23"/>
@@ -15009,53 +15023,53 @@
     </row>
     <row r="167" spans="1:10" ht="147" customHeight="1">
       <c r="A167" s="24" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="H167" s="4"/>
       <c r="I167" s="23" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="J167" s="6"/>
     </row>
     <row r="168" spans="1:10" ht="147" customHeight="1">
       <c r="A168" s="24" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="H168" s="4"/>
       <c r="I168" s="23"/>
@@ -15063,25 +15077,25 @@
     </row>
     <row r="169" spans="1:10" ht="147" customHeight="1">
       <c r="A169" s="24" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="B169" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="H169" s="4"/>
       <c r="I169" s="23"/>
@@ -15089,25 +15103,25 @@
     </row>
     <row r="170" spans="1:10" ht="147" customHeight="1">
       <c r="A170" s="24" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="H170" s="4"/>
       <c r="I170" s="23"/>
@@ -15115,25 +15129,25 @@
     </row>
     <row r="171" spans="1:10" ht="147" customHeight="1">
       <c r="A171" s="24" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="23"/>
@@ -15141,25 +15155,25 @@
     </row>
     <row r="172" spans="1:10" ht="147" customHeight="1">
       <c r="A172" s="24" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="23"/>
@@ -15167,25 +15181,25 @@
     </row>
     <row r="173" spans="1:10" ht="147" customHeight="1">
       <c r="A173" s="24" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="H173" s="4"/>
       <c r="I173" s="23"/>
@@ -15193,25 +15207,25 @@
     </row>
     <row r="174" spans="1:10" ht="147" customHeight="1">
       <c r="A174" s="24" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C174" s="22" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="H174" s="4"/>
       <c r="I174" s="23"/>
@@ -15219,25 +15233,25 @@
     </row>
     <row r="175" spans="1:10" ht="147" customHeight="1">
       <c r="A175" s="24" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="H175" s="4"/>
       <c r="I175" s="23"/>
@@ -15245,25 +15259,25 @@
     </row>
     <row r="176" spans="1:10" ht="147" customHeight="1">
       <c r="A176" s="24" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="H176" s="4"/>
       <c r="I176" s="23"/>
@@ -15271,25 +15285,25 @@
     </row>
     <row r="177" spans="1:10" ht="147" customHeight="1">
       <c r="A177" s="24" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="H177" s="4"/>
       <c r="I177" s="23"/>
@@ -15297,25 +15311,25 @@
     </row>
     <row r="178" spans="1:10" ht="147" customHeight="1">
       <c r="A178" s="24" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="H178" s="4"/>
       <c r="I178" s="23"/>
@@ -15323,25 +15337,25 @@
     </row>
     <row r="179" spans="1:10" ht="147" customHeight="1">
       <c r="A179" s="24" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="H179" s="4"/>
       <c r="I179" s="23"/>
@@ -15349,25 +15363,25 @@
     </row>
     <row r="180" spans="1:10" ht="147" customHeight="1">
       <c r="A180" s="24" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="H180" s="4"/>
       <c r="I180" s="23"/>
@@ -15375,25 +15389,25 @@
     </row>
     <row r="181" spans="1:10" ht="147" customHeight="1">
       <c r="A181" s="24" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="23"/>
@@ -15401,25 +15415,25 @@
     </row>
     <row r="182" spans="1:10" ht="147" customHeight="1">
       <c r="A182" s="24" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="H182" s="4"/>
       <c r="I182" s="23"/>
@@ -15427,25 +15441,25 @@
     </row>
     <row r="183" spans="1:10" ht="147" customHeight="1">
       <c r="A183" s="24" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="H183" s="4"/>
       <c r="I183" s="23"/>
@@ -15453,25 +15467,25 @@
     </row>
     <row r="184" spans="1:10" ht="147" customHeight="1">
       <c r="A184" s="24" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="23"/>
@@ -15479,1933 +15493,1933 @@
     </row>
     <row r="185" spans="1:10" ht="147" customHeight="1">
       <c r="A185" s="24" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="H185" s="4"/>
       <c r="I185" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J185" s="6"/>
     </row>
     <row r="186" spans="1:10" ht="147" customHeight="1">
       <c r="A186" s="13" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H186" s="4"/>
       <c r="I186" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J186" s="6"/>
     </row>
     <row r="187" spans="1:10" ht="147" customHeight="1">
       <c r="A187" s="13" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H187" s="4"/>
       <c r="I187" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J187" s="6"/>
     </row>
     <row r="188" spans="1:10" ht="147" customHeight="1">
       <c r="A188" s="13" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H188" s="4"/>
       <c r="I188" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J188" s="6"/>
     </row>
     <row r="189" spans="1:10" ht="147" customHeight="1">
       <c r="A189" s="13" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="H189" s="4"/>
       <c r="I189" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J189" s="6"/>
     </row>
     <row r="190" spans="1:10" ht="147" customHeight="1">
       <c r="A190" s="13" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="H190" s="4"/>
       <c r="I190" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J190" s="6"/>
     </row>
     <row r="191" spans="1:10" ht="147" customHeight="1">
       <c r="A191" s="13" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F191" s="23" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="H191" s="4"/>
       <c r="I191" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J191" s="6"/>
     </row>
     <row r="192" spans="1:10" ht="147" customHeight="1">
       <c r="A192" s="13" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="H192" s="4"/>
       <c r="I192" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J192" s="6"/>
     </row>
     <row r="193" spans="1:10" ht="147" customHeight="1">
       <c r="A193" s="13" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F193" s="23" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="H193" s="4"/>
       <c r="I193" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J193" s="6"/>
     </row>
     <row r="194" spans="1:10" ht="147" customHeight="1">
       <c r="A194" s="13" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="H194" s="4"/>
       <c r="I194" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J194" s="6"/>
     </row>
     <row r="195" spans="1:10" ht="147" customHeight="1">
       <c r="A195" s="13" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="H195" s="4"/>
       <c r="I195" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J195" s="6"/>
     </row>
     <row r="196" spans="1:10" ht="147" customHeight="1">
       <c r="A196" s="13" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="H196" s="4"/>
       <c r="I196" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J196" s="6"/>
     </row>
     <row r="197" spans="1:10" ht="147" customHeight="1">
       <c r="A197" s="13" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="H197" s="4"/>
       <c r="I197" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J197" s="6"/>
     </row>
     <row r="198" spans="1:10" ht="147" customHeight="1">
       <c r="A198" s="13" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="H198" s="4"/>
       <c r="I198" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J198" s="6"/>
     </row>
     <row r="199" spans="1:10" ht="147" customHeight="1">
       <c r="A199" s="13" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="H199" s="4"/>
       <c r="I199" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J199" s="6"/>
     </row>
     <row r="200" spans="1:10" ht="147" customHeight="1">
       <c r="A200" s="13" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="H200" s="4"/>
       <c r="I200" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J200" s="6"/>
     </row>
     <row r="201" spans="1:10" ht="147" customHeight="1">
       <c r="A201" s="13" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="H201" s="4"/>
       <c r="I201" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J201" s="6"/>
     </row>
     <row r="202" spans="1:10" ht="147" customHeight="1">
       <c r="A202" s="13" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="H202" s="4"/>
       <c r="I202" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J202" s="6"/>
     </row>
     <row r="203" spans="1:10" ht="147" customHeight="1">
       <c r="A203" s="13" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="H203" s="4"/>
       <c r="I203" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J203" s="6"/>
     </row>
     <row r="204" spans="1:10" ht="147" customHeight="1">
       <c r="A204" s="13" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="H204" s="4"/>
       <c r="I204" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J204" s="6"/>
     </row>
     <row r="205" spans="1:10" ht="147" customHeight="1">
       <c r="A205" s="13" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="H205" s="4"/>
       <c r="I205" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J205" s="6"/>
     </row>
     <row r="206" spans="1:10" ht="147" customHeight="1">
       <c r="A206" s="13" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="H206" s="4"/>
       <c r="I206" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J206" s="6"/>
     </row>
     <row r="207" spans="1:10" ht="147" customHeight="1">
       <c r="A207" s="13" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="H207" s="4"/>
       <c r="I207" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J207" s="6"/>
     </row>
     <row r="208" spans="1:10" ht="147" customHeight="1">
       <c r="A208" s="13" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="H208" s="4"/>
       <c r="I208" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J208" s="6"/>
     </row>
     <row r="209" spans="1:10" ht="147" customHeight="1">
       <c r="A209" s="13" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="H209" s="4"/>
       <c r="I209" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J209" s="6"/>
     </row>
     <row r="210" spans="1:10" ht="147" customHeight="1">
       <c r="A210" s="13" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="H210" s="4"/>
       <c r="I210" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J210" s="6"/>
     </row>
     <row r="211" spans="1:10" ht="147" customHeight="1">
       <c r="A211" s="13" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="H211" s="4"/>
       <c r="I211" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J211" s="6"/>
     </row>
     <row r="212" spans="1:10" ht="147" customHeight="1">
       <c r="A212" s="13" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="H212" s="4"/>
       <c r="I212" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J212" s="6"/>
     </row>
     <row r="213" spans="1:10" ht="147" customHeight="1">
       <c r="A213" s="13" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="H213" s="4"/>
       <c r="I213" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J213" s="6"/>
     </row>
     <row r="214" spans="1:10" ht="147" customHeight="1">
       <c r="A214" s="13" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J214" s="6"/>
     </row>
     <row r="215" spans="1:10" ht="147" customHeight="1">
       <c r="A215" s="13" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J215" s="6"/>
     </row>
     <row r="216" spans="1:10" ht="147" customHeight="1">
       <c r="A216" s="13" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H216" s="4"/>
       <c r="I216" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J216" s="6"/>
     </row>
     <row r="217" spans="1:10" ht="147" customHeight="1">
       <c r="A217" s="13" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="H217" s="4"/>
       <c r="I217" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J217" s="6"/>
     </row>
     <row r="218" spans="1:10" ht="147" customHeight="1">
       <c r="A218" s="13" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="H218" s="4"/>
       <c r="I218" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J218" s="6"/>
     </row>
     <row r="219" spans="1:10" ht="147" customHeight="1">
       <c r="A219" s="13" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="H219" s="4"/>
       <c r="I219" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J219" s="6"/>
     </row>
     <row r="220" spans="1:10" ht="147" customHeight="1">
       <c r="A220" s="13" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J220" s="6"/>
     </row>
     <row r="221" spans="1:10" ht="147" customHeight="1">
       <c r="A221" s="13" t="s">
-        <v>1043</v>
+        <v>882</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J221" s="6"/>
     </row>
     <row r="222" spans="1:10" ht="147" customHeight="1">
       <c r="A222" s="13" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>933</v>
+        <v>915</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
       <c r="H222" s="4"/>
       <c r="I222" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J222" s="6"/>
     </row>
     <row r="223" spans="1:10" ht="147" customHeight="1">
       <c r="A223" s="13" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J223" s="6"/>
     </row>
     <row r="224" spans="1:10" ht="147" customHeight="1">
       <c r="A224" s="13" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>973</v>
+        <v>955</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>1004</v>
+        <v>986</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J224" s="6"/>
     </row>
     <row r="225" spans="1:10" ht="147" customHeight="1">
       <c r="A225" s="13" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>938</v>
+        <v>920</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J225" s="6"/>
     </row>
     <row r="226" spans="1:10" ht="147" customHeight="1">
       <c r="A226" s="13" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>940</v>
+        <v>922</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J226" s="6"/>
     </row>
     <row r="227" spans="1:10" ht="147" customHeight="1">
       <c r="A227" s="13" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J227" s="6"/>
     </row>
     <row r="228" spans="1:10" ht="147" customHeight="1">
       <c r="A228" s="13" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="H228" s="4"/>
       <c r="I228" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J228" s="6"/>
     </row>
     <row r="229" spans="1:10" ht="147" customHeight="1">
       <c r="A229" s="13" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J229" s="6"/>
     </row>
     <row r="230" spans="1:10" ht="147" customHeight="1">
       <c r="A230" s="13" t="s">
-        <v>913</v>
+        <v>1045</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J230" s="6"/>
     </row>
     <row r="231" spans="1:10" ht="147" customHeight="1">
       <c r="A231" s="13" t="s">
-        <v>917</v>
+        <v>1046</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="H231" s="4"/>
       <c r="I231" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J231" s="6"/>
     </row>
     <row r="232" spans="1:10" ht="147" customHeight="1">
       <c r="A232" s="13" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J232" s="6"/>
     </row>
     <row r="233" spans="1:10" ht="147" customHeight="1">
       <c r="A233" s="13" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="H233" s="4"/>
       <c r="I233" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J233" s="6"/>
     </row>
     <row r="234" spans="1:10" ht="147" customHeight="1">
       <c r="A234" s="13" t="s">
-        <v>925</v>
+        <v>1047</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="H234" s="4"/>
       <c r="I234" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J234" s="6"/>
     </row>
     <row r="235" spans="1:10" ht="147" customHeight="1">
       <c r="A235" s="13" t="s">
-        <v>926</v>
+        <v>1048</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="H235" s="4"/>
       <c r="I235" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J235" s="6"/>
     </row>
     <row r="236" spans="1:10" ht="147" customHeight="1">
       <c r="A236" s="13" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="H236" s="4"/>
       <c r="I236" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J236" s="6"/>
     </row>
     <row r="237" spans="1:10" ht="147" customHeight="1">
       <c r="A237" s="13" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="H237" s="4"/>
       <c r="I237" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J237" s="6"/>
     </row>
     <row r="238" spans="1:10" ht="147" customHeight="1">
       <c r="A238" s="13" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="H238" s="4"/>
       <c r="I238" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J238" s="6"/>
     </row>
     <row r="239" spans="1:10" ht="147" customHeight="1">
       <c r="A239" s="13" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="H239" s="4"/>
       <c r="I239" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J239" s="6"/>
     </row>
     <row r="240" spans="1:10" ht="147" customHeight="1">
       <c r="A240" s="13" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="H240" s="4"/>
       <c r="I240" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J240" s="6"/>
     </row>
     <row r="241" spans="1:10" ht="147" customHeight="1">
       <c r="A241" s="13" t="s">
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J241" s="6"/>
     </row>
     <row r="242" spans="1:10" ht="147" customHeight="1">
       <c r="A242" s="13" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="H242" s="4"/>
       <c r="I242" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J242" s="6"/>
     </row>
     <row r="243" spans="1:10" ht="147" customHeight="1">
       <c r="A243" s="13" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J243" s="6"/>
     </row>
     <row r="244" spans="1:10" ht="147" customHeight="1">
       <c r="A244" s="13" t="s">
-        <v>967</v>
+        <v>1025</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>969</v>
+        <v>951</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>966</v>
+        <v>948</v>
       </c>
       <c r="H244" s="4"/>
       <c r="I244" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J244" s="6"/>
     </row>
     <row r="245" spans="1:10" ht="147" customHeight="1">
       <c r="A245" s="13" t="s">
-        <v>1044</v>
+        <v>958</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>968</v>
+        <v>950</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>970</v>
+        <v>952</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>972</v>
+        <v>954</v>
       </c>
       <c r="H245" s="4"/>
       <c r="I245" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J245" s="6"/>
     </row>
     <row r="246" spans="1:10" ht="147" customHeight="1">
       <c r="A246" s="13" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>1029</v>
+        <v>1011</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>978</v>
+        <v>960</v>
       </c>
       <c r="H246" s="4"/>
       <c r="I246" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J246" s="6"/>
     </row>
     <row r="247" spans="1:10" ht="147" customHeight="1">
       <c r="A247" s="13" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>980</v>
+        <v>962</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>983</v>
+        <v>965</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>987</v>
+        <v>969</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>986</v>
+        <v>968</v>
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J247" s="6"/>
     </row>
     <row r="248" spans="1:10" ht="147" customHeight="1">
       <c r="A248" s="13" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>982</v>
+        <v>964</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>984</v>
+        <v>966</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>988</v>
+        <v>970</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>985</v>
+        <v>967</v>
       </c>
       <c r="H248" s="4"/>
       <c r="I248" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J248" s="6"/>
     </row>
     <row r="249" spans="1:10" ht="147" customHeight="1">
       <c r="A249" s="13" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>990</v>
+        <v>972</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="H249" s="4"/>
       <c r="I249" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J249" s="6"/>
     </row>
     <row r="250" spans="1:10" ht="147" customHeight="1">
       <c r="A250" s="13" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>993</v>
+        <v>975</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="H250" s="4"/>
       <c r="I250" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J250" s="6"/>
     </row>
     <row r="251" spans="1:10" ht="147" customHeight="1">
       <c r="A251" s="13" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="H251" s="4"/>
       <c r="I251" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J251" s="6"/>
     </row>
     <row r="252" spans="1:10" ht="147" customHeight="1">
       <c r="A252" s="13" t="s">
-        <v>995</v>
+        <v>1026</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="H252" s="4"/>
       <c r="I252" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J252" s="6"/>
     </row>
     <row r="253" spans="1:10" ht="147" customHeight="1">
       <c r="A253" s="13" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="H253" s="4"/>
       <c r="I253" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J253" s="6"/>
     </row>
@@ -17471,7 +17485,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>13</v>
@@ -17482,7 +17496,7 @@
     </row>
     <row r="2" spans="1:10" ht="72">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -17493,20 +17507,20 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="86.4">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
@@ -17517,20 +17531,20 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="86.4">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -17543,36 +17557,36 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="96.45" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -17580,49 +17594,49 @@
     </row>
     <row r="6" spans="1:10" ht="118.2" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="96.45" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -17630,27 +17644,27 @@
     </row>
     <row r="8" spans="1:10" ht="118.2" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="J8" s="4"/>
     </row>
